--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41803211-D9F9-4B1A-AB73-9F83B136BA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388CBDA5-79F1-4A98-ADB9-9828C1476C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>RMS-TS</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Leonardo de Assis Riso</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -504,13 +513,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DP27"/>
+  <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,6 +1239,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1238,6 +1250,9 @@
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1246,6 +1261,9 @@
       <c r="B5">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1254,6 +1272,9 @@
       <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1262,6 +1283,9 @@
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1270,6 +1294,9 @@
       <c r="B8">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1278,6 +1305,9 @@
       <c r="B9">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1286,6 +1316,9 @@
       <c r="B10">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1294,6 +1327,9 @@
       <c r="B11">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1302,6 +1338,9 @@
       <c r="B12">
         <v>10</v>
       </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1310,6 +1349,9 @@
       <c r="B13">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1318,6 +1360,9 @@
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1326,6 +1371,9 @@
       <c r="B15">
         <v>13</v>
       </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1334,93 +1382,140 @@
       <c r="B16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
       <c r="B27">
         <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388CBDA5-79F1-4A98-ADB9-9828C1476C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E060D72C-8547-4461-A7EF-B8D383F5474C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -519,7 +519,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,6 +1242,15 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1253,6 +1262,15 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1264,6 +1282,15 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1275,6 +1302,15 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1286,6 +1322,15 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1297,6 +1342,15 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1308,6 +1362,15 @@
       <c r="C9" t="s">
         <v>31</v>
       </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1319,6 +1382,15 @@
       <c r="C10" t="s">
         <v>31</v>
       </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1330,6 +1402,15 @@
       <c r="C11" t="s">
         <v>31</v>
       </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1341,6 +1422,15 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1352,6 +1442,15 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1363,6 +1462,15 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1374,6 +1482,15 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1385,8 +1502,17 @@
       <c r="C16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1522,17 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1407,8 +1542,17 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1418,8 +1562,17 @@
       <c r="C19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1582,17 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1440,8 +1602,17 @@
       <c r="C21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1451,8 +1622,17 @@
       <c r="C22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1462,8 +1642,17 @@
       <c r="C23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1473,8 +1662,17 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1484,8 +1682,17 @@
       <c r="C25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1702,17 @@
       <c r="C26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1506,8 +1722,17 @@
       <c r="C27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1515,6 +1740,15 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E060D72C-8547-4461-A7EF-B8D383F5474C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E4F22-67B4-4D8C-AFE6-D680863F9484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,13 +184,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +528,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,6 +1260,12 @@
       <c r="F3" t="s">
         <v>31</v>
       </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1271,6 +1286,12 @@
       <c r="F4" t="s">
         <v>31</v>
       </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1291,6 +1312,12 @@
       <c r="F5" t="s">
         <v>31</v>
       </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1311,6 +1338,12 @@
       <c r="F6" t="s">
         <v>31</v>
       </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1331,6 +1364,12 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1351,6 +1390,12 @@
       <c r="F8" t="s">
         <v>31</v>
       </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1371,6 +1416,12 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1391,6 +1442,12 @@
       <c r="F10" t="s">
         <v>31</v>
       </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1411,6 +1468,12 @@
       <c r="F11" t="s">
         <v>31</v>
       </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1431,6 +1494,12 @@
       <c r="F12" t="s">
         <v>31</v>
       </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1451,6 +1520,12 @@
       <c r="F13" t="s">
         <v>31</v>
       </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1471,6 +1546,12 @@
       <c r="F14" t="s">
         <v>31</v>
       </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1491,6 +1572,12 @@
       <c r="F15" t="s">
         <v>33</v>
       </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1511,8 +1598,14 @@
       <c r="F16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1624,14 @@
       <c r="F17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1551,8 +1650,14 @@
       <c r="F18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1571,8 +1676,14 @@
       <c r="F19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1591,8 +1702,14 @@
       <c r="F20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1611,8 +1728,14 @@
       <c r="F21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1631,8 +1754,14 @@
       <c r="F22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1651,8 +1780,14 @@
       <c r="F23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1671,8 +1806,14 @@
       <c r="F24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1691,8 +1832,14 @@
       <c r="F25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1711,8 +1858,14 @@
       <c r="F26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1731,8 +1884,14 @@
       <c r="F27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1749,6 +1908,12 @@
         <v>31</v>
       </c>
       <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E4F22-67B4-4D8C-AFE6-D680863F9484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A831F0C-83D4-492B-BDC2-F9DFC1F9F37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,14 +151,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +520,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,10 +1252,25 @@
       <c r="F3" t="s">
         <v>31</v>
       </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1286,11 +1293,26 @@
       <c r="F4" t="s">
         <v>31</v>
       </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
         <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
@@ -1312,10 +1334,25 @@
       <c r="F5" t="s">
         <v>31</v>
       </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
       <c r="I5" t="s">
         <v>33</v>
       </c>
       <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1338,10 +1375,25 @@
       <c r="F6" t="s">
         <v>31</v>
       </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1364,10 +1416,25 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
       <c r="I7" t="s">
         <v>31</v>
       </c>
       <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1390,10 +1457,25 @@
       <c r="F8" t="s">
         <v>31</v>
       </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
       <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1416,10 +1498,25 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
       <c r="I9" t="s">
         <v>31</v>
       </c>
       <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1442,10 +1539,25 @@
       <c r="F10" t="s">
         <v>31</v>
       </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
       <c r="I10" t="s">
         <v>31</v>
       </c>
       <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1468,10 +1580,25 @@
       <c r="F11" t="s">
         <v>31</v>
       </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" t="s">
         <v>33</v>
       </c>
       <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1494,10 +1621,25 @@
       <c r="F12" t="s">
         <v>31</v>
       </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" t="s">
         <v>31</v>
       </c>
       <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1520,10 +1662,25 @@
       <c r="F13" t="s">
         <v>31</v>
       </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
       <c r="I13" t="s">
         <v>31</v>
       </c>
       <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1546,10 +1703,25 @@
       <c r="F14" t="s">
         <v>31</v>
       </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" t="s">
         <v>31</v>
       </c>
       <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1572,10 +1744,25 @@
       <c r="F15" t="s">
         <v>33</v>
       </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
       <c r="I15" t="s">
         <v>31</v>
       </c>
       <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1598,14 +1785,29 @@
       <c r="F16" t="s">
         <v>33</v>
       </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
       <c r="I16" t="s">
         <v>31</v>
       </c>
       <c r="J16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1624,14 +1826,29 @@
       <c r="F17" t="s">
         <v>33</v>
       </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
       <c r="I17" t="s">
         <v>33</v>
       </c>
       <c r="J17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1650,14 +1867,29 @@
       <c r="F18" t="s">
         <v>31</v>
       </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
       <c r="I18" t="s">
         <v>31</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1676,14 +1908,29 @@
       <c r="F19" t="s">
         <v>31</v>
       </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
       <c r="I19" t="s">
         <v>31</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1702,14 +1949,29 @@
       <c r="F20" t="s">
         <v>31</v>
       </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
       <c r="I20" t="s">
         <v>31</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1728,14 +1990,29 @@
       <c r="F21" t="s">
         <v>31</v>
       </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
       <c r="I21" t="s">
         <v>31</v>
       </c>
       <c r="J21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1754,14 +2031,29 @@
       <c r="F22" t="s">
         <v>31</v>
       </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
       <c r="I22" t="s">
         <v>31</v>
       </c>
       <c r="J22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1780,14 +2072,29 @@
       <c r="F23" t="s">
         <v>31</v>
       </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
       <c r="I23" t="s">
         <v>31</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1806,14 +2113,29 @@
       <c r="F24" t="s">
         <v>31</v>
       </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
       <c r="I24" t="s">
         <v>33</v>
       </c>
       <c r="J24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1832,14 +2154,29 @@
       <c r="F25" t="s">
         <v>31</v>
       </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
       <c r="I25" t="s">
         <v>33</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1858,14 +2195,29 @@
       <c r="F26" t="s">
         <v>31</v>
       </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
       <c r="I26" t="s">
         <v>31</v>
       </c>
       <c r="J26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1884,14 +2236,29 @@
       <c r="F27" t="s">
         <v>31</v>
       </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
       <c r="I27" t="s">
         <v>31</v>
       </c>
       <c r="J27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1910,10 +2277,25 @@
       <c r="F28" t="s">
         <v>31</v>
       </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
       <c r="I28" t="s">
         <v>33</v>
       </c>
       <c r="J28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A831F0C-83D4-492B-BDC2-F9DFC1F9F37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DB5A57-10C5-44B4-9063-615B123E807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,10 +188,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,9 +226,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,7 +266,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -364,7 +372,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,7 +514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,7 +528,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,10 +600,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1273,6 +1281,15 @@
       <c r="M3" t="s">
         <v>31</v>
       </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1314,6 +1331,15 @@
       <c r="M4" t="s">
         <v>33</v>
       </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1355,6 +1381,15 @@
       <c r="M5" t="s">
         <v>31</v>
       </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1396,6 +1431,15 @@
       <c r="M6" t="s">
         <v>31</v>
       </c>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1437,6 +1481,15 @@
       <c r="M7" t="s">
         <v>31</v>
       </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1478,6 +1531,15 @@
       <c r="M8" t="s">
         <v>31</v>
       </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1519,6 +1581,15 @@
       <c r="M9" t="s">
         <v>31</v>
       </c>
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1560,6 +1631,15 @@
       <c r="M10" t="s">
         <v>31</v>
       </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1601,6 +1681,15 @@
       <c r="M11" t="s">
         <v>31</v>
       </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1642,6 +1731,15 @@
       <c r="M12" t="s">
         <v>31</v>
       </c>
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1683,6 +1781,15 @@
       <c r="M13" t="s">
         <v>31</v>
       </c>
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1724,6 +1831,15 @@
       <c r="M14" t="s">
         <v>31</v>
       </c>
+      <c r="N14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1765,6 +1881,15 @@
       <c r="M15" t="s">
         <v>31</v>
       </c>
+      <c r="N15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1806,8 +1931,17 @@
       <c r="M16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1847,8 +1981,17 @@
       <c r="M17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1888,8 +2031,17 @@
       <c r="M18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1929,8 +2081,17 @@
       <c r="M19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1970,8 +2131,17 @@
       <c r="M20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2181,17 @@
       <c r="M21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2052,8 +2231,17 @@
       <c r="M22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2093,8 +2281,18 @@
       <c r="M23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2134,8 +2332,17 @@
       <c r="M24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2175,8 +2382,17 @@
       <c r="M25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2216,8 +2432,17 @@
       <c r="M26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2257,8 +2482,17 @@
       <c r="M27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2286,16 +2520,25 @@
       <c r="I28" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="4" t="s">
+      <c r="J28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DB5A57-10C5-44B4-9063-615B123E807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B296EE-E367-4D11-9CF1-B4FBA14579E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -528,7 +528,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,6 +1290,15 @@
       <c r="P3" t="s">
         <v>31</v>
       </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1340,6 +1349,15 @@
       <c r="P4" t="s">
         <v>31</v>
       </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1390,6 +1408,15 @@
       <c r="P5" t="s">
         <v>31</v>
       </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1440,6 +1467,15 @@
       <c r="P6" t="s">
         <v>31</v>
       </c>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1490,6 +1526,15 @@
       <c r="P7" t="s">
         <v>31</v>
       </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1540,6 +1585,15 @@
       <c r="P8" t="s">
         <v>31</v>
       </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1590,6 +1644,15 @@
       <c r="P9" t="s">
         <v>31</v>
       </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1640,6 +1703,15 @@
       <c r="P10" t="s">
         <v>31</v>
       </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1690,6 +1762,15 @@
       <c r="P11" t="s">
         <v>31</v>
       </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1740,6 +1821,15 @@
       <c r="P12" t="s">
         <v>31</v>
       </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1790,6 +1880,15 @@
       <c r="P13" t="s">
         <v>31</v>
       </c>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1840,6 +1939,15 @@
       <c r="P14" t="s">
         <v>31</v>
       </c>
+      <c r="Q14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1890,6 +1998,15 @@
       <c r="P15" t="s">
         <v>31</v>
       </c>
+      <c r="Q15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1940,6 +2057,15 @@
       <c r="P16" t="s">
         <v>33</v>
       </c>
+      <c r="Q16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1990,6 +2116,15 @@
       <c r="P17" t="s">
         <v>31</v>
       </c>
+      <c r="Q17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2040,6 +2175,15 @@
       <c r="P18" t="s">
         <v>31</v>
       </c>
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2090,6 +2234,15 @@
       <c r="P19" t="s">
         <v>31</v>
       </c>
+      <c r="Q19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2140,6 +2293,15 @@
       <c r="P20" t="s">
         <v>31</v>
       </c>
+      <c r="Q20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2190,6 +2352,15 @@
       <c r="P21" t="s">
         <v>31</v>
       </c>
+      <c r="Q21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2240,6 +2411,15 @@
       <c r="P22" t="s">
         <v>33</v>
       </c>
+      <c r="Q22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2288,6 +2468,15 @@
         <v>31</v>
       </c>
       <c r="P23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" t="s">
         <v>31</v>
       </c>
       <c r="U23" s="3"/>
@@ -2341,6 +2530,15 @@
       <c r="P24" t="s">
         <v>33</v>
       </c>
+      <c r="Q24" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2391,6 +2589,15 @@
       <c r="P25" t="s">
         <v>31</v>
       </c>
+      <c r="Q25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2441,6 +2648,15 @@
       <c r="P26" t="s">
         <v>33</v>
       </c>
+      <c r="Q26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2491,6 +2707,15 @@
       <c r="P27" t="s">
         <v>31</v>
       </c>
+      <c r="Q27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2538,7 +2763,16 @@
       <c r="O28" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B296EE-E367-4D11-9CF1-B4FBA14579E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17BFF46-6C3C-488D-9E71-A430E97790CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,7 +2359,7 @@
         <v>31</v>
       </c>
       <c r="S21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17BFF46-6C3C-488D-9E71-A430E97790CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30513315-46D3-4D20-A0E5-86797FBEEF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -528,7 +528,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
+      <selection pane="bottomRight" activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,6 +1299,27 @@
       <c r="S3" t="s">
         <v>31</v>
       </c>
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1358,6 +1379,27 @@
       <c r="S4" t="s">
         <v>31</v>
       </c>
+      <c r="T4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1417,6 +1459,27 @@
       <c r="S5" t="s">
         <v>31</v>
       </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1476,6 +1539,27 @@
       <c r="S6" t="s">
         <v>33</v>
       </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1535,6 +1619,27 @@
       <c r="S7" t="s">
         <v>31</v>
       </c>
+      <c r="T7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1594,6 +1699,27 @@
       <c r="S8" t="s">
         <v>31</v>
       </c>
+      <c r="T8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1653,6 +1779,27 @@
       <c r="S9" t="s">
         <v>31</v>
       </c>
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1712,6 +1859,27 @@
       <c r="S10" t="s">
         <v>31</v>
       </c>
+      <c r="T10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1771,6 +1939,27 @@
       <c r="S11" t="s">
         <v>31</v>
       </c>
+      <c r="T11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1830,6 +2019,27 @@
       <c r="S12" t="s">
         <v>31</v>
       </c>
+      <c r="T12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1889,6 +2099,27 @@
       <c r="S13" t="s">
         <v>31</v>
       </c>
+      <c r="T13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1948,6 +2179,27 @@
       <c r="S14" t="s">
         <v>31</v>
       </c>
+      <c r="T14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2007,6 +2259,27 @@
       <c r="S15" t="s">
         <v>31</v>
       </c>
+      <c r="T15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2066,8 +2339,29 @@
       <c r="S16" t="s">
         <v>31</v>
       </c>
+      <c r="T16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2419,29 @@
       <c r="S17" t="s">
         <v>33</v>
       </c>
+      <c r="T17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2184,8 +2499,29 @@
       <c r="S18" t="s">
         <v>31</v>
       </c>
+      <c r="T18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2243,8 +2579,29 @@
       <c r="S19" t="s">
         <v>31</v>
       </c>
+      <c r="T19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2302,8 +2659,29 @@
       <c r="S20" t="s">
         <v>31</v>
       </c>
+      <c r="T20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2739,30 @@
       <c r="S21" t="s">
         <v>31</v>
       </c>
+      <c r="T21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2420,8 +2820,29 @@
       <c r="S22" t="s">
         <v>31</v>
       </c>
+      <c r="T22" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W22" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2479,9 +2900,29 @@
       <c r="S23" t="s">
         <v>31</v>
       </c>
-      <c r="U23" s="3"/>
+      <c r="T23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W23" t="s">
+        <v>31</v>
+      </c>
+      <c r="X23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2539,8 +2980,29 @@
       <c r="S24" t="s">
         <v>33</v>
       </c>
+      <c r="T24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W24" t="s">
+        <v>31</v>
+      </c>
+      <c r="X24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2598,8 +3060,29 @@
       <c r="S25" t="s">
         <v>31</v>
       </c>
+      <c r="T25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2657,8 +3140,29 @@
       <c r="S26" t="s">
         <v>31</v>
       </c>
+      <c r="T26" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" t="s">
+        <v>31</v>
+      </c>
+      <c r="W26" t="s">
+        <v>31</v>
+      </c>
+      <c r="X26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2716,8 +3220,29 @@
       <c r="S27" t="s">
         <v>31</v>
       </c>
+      <c r="T27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W27" t="s">
+        <v>31</v>
+      </c>
+      <c r="X27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2773,6 +3298,27 @@
         <v>31</v>
       </c>
       <c r="S28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30513315-46D3-4D20-A0E5-86797FBEEF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF302161-B6F7-41B2-A7B2-5184977E144A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -192,6 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +529,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z27" sqref="Z27"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,6 +1321,9 @@
       <c r="Z3" t="s">
         <v>31</v>
       </c>
+      <c r="AA3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1400,6 +1404,9 @@
       <c r="Z4" t="s">
         <v>31</v>
       </c>
+      <c r="AA4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1480,6 +1487,9 @@
       <c r="Z5" t="s">
         <v>31</v>
       </c>
+      <c r="AA5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1560,6 +1570,9 @@
       <c r="Z6" t="s">
         <v>33</v>
       </c>
+      <c r="AA6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1640,6 +1653,9 @@
       <c r="Z7" t="s">
         <v>31</v>
       </c>
+      <c r="AA7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1720,6 +1736,9 @@
       <c r="Z8" t="s">
         <v>31</v>
       </c>
+      <c r="AA8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1800,6 +1819,9 @@
       <c r="Z9" t="s">
         <v>31</v>
       </c>
+      <c r="AA9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1880,6 +1902,9 @@
       <c r="Z10" t="s">
         <v>31</v>
       </c>
+      <c r="AA10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1960,6 +1985,9 @@
       <c r="Z11" t="s">
         <v>31</v>
       </c>
+      <c r="AA11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2040,6 +2068,9 @@
       <c r="Z12" t="s">
         <v>31</v>
       </c>
+      <c r="AA12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2120,6 +2151,9 @@
       <c r="Z13" t="s">
         <v>31</v>
       </c>
+      <c r="AA13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2200,6 +2234,9 @@
       <c r="Z14" t="s">
         <v>31</v>
       </c>
+      <c r="AA14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2280,6 +2317,9 @@
       <c r="Z15" t="s">
         <v>31</v>
       </c>
+      <c r="AA15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2360,6 +2400,9 @@
       <c r="Z16" t="s">
         <v>33</v>
       </c>
+      <c r="AA16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2440,6 +2483,9 @@
       <c r="Z17" t="s">
         <v>33</v>
       </c>
+      <c r="AA17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2520,6 +2566,9 @@
       <c r="Z18" t="s">
         <v>31</v>
       </c>
+      <c r="AA18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2600,6 +2649,9 @@
       <c r="Z19" t="s">
         <v>31</v>
       </c>
+      <c r="AA19" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2680,6 +2732,9 @@
       <c r="Z20" t="s">
         <v>31</v>
       </c>
+      <c r="AA20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2758,6 +2813,9 @@
         <v>31</v>
       </c>
       <c r="Z21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA21" t="s">
         <v>31</v>
       </c>
       <c r="AB21" s="3"/>
@@ -2841,6 +2899,9 @@
       <c r="Z22" t="s">
         <v>31</v>
       </c>
+      <c r="AA22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2921,6 +2982,9 @@
       <c r="Z23" t="s">
         <v>31</v>
       </c>
+      <c r="AA23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3001,6 +3065,9 @@
       <c r="Z24" t="s">
         <v>31</v>
       </c>
+      <c r="AA24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3081,6 +3148,9 @@
       <c r="Z25" t="s">
         <v>31</v>
       </c>
+      <c r="AA25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3161,6 +3231,9 @@
       <c r="Z26" t="s">
         <v>33</v>
       </c>
+      <c r="AA26" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3238,7 +3311,10 @@
       <c r="Y27" t="s">
         <v>31</v>
       </c>
-      <c r="Z27" s="3" t="s">
+      <c r="Z27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3319,6 +3395,9 @@
         <v>31</v>
       </c>
       <c r="Z28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF302161-B6F7-41B2-A7B2-5184977E144A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281B8A46-B0B0-420C-9436-F2EDCBC75338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -192,7 +192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +528,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,6 +1323,9 @@
       <c r="AA3" t="s">
         <v>31</v>
       </c>
+      <c r="AB3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1407,6 +1409,9 @@
       <c r="AA4" t="s">
         <v>31</v>
       </c>
+      <c r="AB4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1490,6 +1495,9 @@
       <c r="AA5" t="s">
         <v>31</v>
       </c>
+      <c r="AB5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1573,6 +1581,9 @@
       <c r="AA6" t="s">
         <v>33</v>
       </c>
+      <c r="AB6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1656,6 +1667,9 @@
       <c r="AA7" t="s">
         <v>33</v>
       </c>
+      <c r="AB7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1739,6 +1753,9 @@
       <c r="AA8" t="s">
         <v>31</v>
       </c>
+      <c r="AB8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1822,6 +1839,9 @@
       <c r="AA9" t="s">
         <v>31</v>
       </c>
+      <c r="AB9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1905,6 +1925,9 @@
       <c r="AA10" t="s">
         <v>31</v>
       </c>
+      <c r="AB10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1988,6 +2011,9 @@
       <c r="AA11" t="s">
         <v>31</v>
       </c>
+      <c r="AB11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2071,6 +2097,9 @@
       <c r="AA12" t="s">
         <v>31</v>
       </c>
+      <c r="AB12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2154,6 +2183,9 @@
       <c r="AA13" t="s">
         <v>31</v>
       </c>
+      <c r="AB13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2237,6 +2269,9 @@
       <c r="AA14" t="s">
         <v>31</v>
       </c>
+      <c r="AB14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2320,6 +2355,9 @@
       <c r="AA15" t="s">
         <v>31</v>
       </c>
+      <c r="AB15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2403,6 +2441,9 @@
       <c r="AA16" t="s">
         <v>31</v>
       </c>
+      <c r="AB16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2486,6 +2527,9 @@
       <c r="AA17" t="s">
         <v>33</v>
       </c>
+      <c r="AB17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2569,6 +2613,9 @@
       <c r="AA18" t="s">
         <v>31</v>
       </c>
+      <c r="AB18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2652,6 +2699,9 @@
       <c r="AA19" t="s">
         <v>31</v>
       </c>
+      <c r="AB19" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2735,6 +2785,9 @@
       <c r="AA20" t="s">
         <v>31</v>
       </c>
+      <c r="AB20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2818,7 +2871,9 @@
       <c r="AA21" t="s">
         <v>31</v>
       </c>
-      <c r="AB21" s="3"/>
+      <c r="AB21" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2902,6 +2957,9 @@
       <c r="AA22" t="s">
         <v>33</v>
       </c>
+      <c r="AB22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2985,6 +3043,9 @@
       <c r="AA23" t="s">
         <v>31</v>
       </c>
+      <c r="AB23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3068,6 +3129,9 @@
       <c r="AA24" t="s">
         <v>31</v>
       </c>
+      <c r="AB24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3151,6 +3215,9 @@
       <c r="AA25" t="s">
         <v>31</v>
       </c>
+      <c r="AB25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3234,6 +3301,9 @@
       <c r="AA26" t="s">
         <v>31</v>
       </c>
+      <c r="AB26" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3311,10 +3381,13 @@
       <c r="Y27" t="s">
         <v>31</v>
       </c>
-      <c r="Z27" s="5" t="s">
+      <c r="Z27" t="s">
         <v>31</v>
       </c>
       <c r="AA27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3399,6 +3472,9 @@
       </c>
       <c r="AA28" t="s">
         <v>31</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281B8A46-B0B0-420C-9436-F2EDCBC75338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83897DD-FCFF-401B-B99B-491E1D388072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -528,7 +528,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W19" sqref="W19"/>
+      <selection pane="bottomRight" activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,6 +1326,9 @@
       <c r="AB3" t="s">
         <v>31</v>
       </c>
+      <c r="AC3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1412,6 +1415,9 @@
       <c r="AB4" t="s">
         <v>31</v>
       </c>
+      <c r="AC4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1498,6 +1504,9 @@
       <c r="AB5" t="s">
         <v>31</v>
       </c>
+      <c r="AC5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1567,7 +1576,7 @@
         <v>31</v>
       </c>
       <c r="W6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s">
         <v>31</v>
@@ -1583,6 +1592,9 @@
       </c>
       <c r="AB6" t="s">
         <v>31</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
@@ -1670,6 +1682,9 @@
       <c r="AB7" t="s">
         <v>31</v>
       </c>
+      <c r="AC7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1756,6 +1771,9 @@
       <c r="AB8" t="s">
         <v>31</v>
       </c>
+      <c r="AC8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1842,6 +1860,9 @@
       <c r="AB9" t="s">
         <v>31</v>
       </c>
+      <c r="AC9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1928,6 +1949,9 @@
       <c r="AB10" t="s">
         <v>31</v>
       </c>
+      <c r="AC10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2014,6 +2038,9 @@
       <c r="AB11" t="s">
         <v>31</v>
       </c>
+      <c r="AC11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2100,6 +2127,9 @@
       <c r="AB12" t="s">
         <v>31</v>
       </c>
+      <c r="AC12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2186,6 +2216,9 @@
       <c r="AB13" t="s">
         <v>31</v>
       </c>
+      <c r="AC13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2272,6 +2305,9 @@
       <c r="AB14" t="s">
         <v>31</v>
       </c>
+      <c r="AC14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2358,6 +2394,9 @@
       <c r="AB15" t="s">
         <v>31</v>
       </c>
+      <c r="AC15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2444,8 +2483,11 @@
       <c r="AB16" t="s">
         <v>31</v>
       </c>
+      <c r="AC16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2572,11 @@
       <c r="AB17" t="s">
         <v>33</v>
       </c>
+      <c r="AC17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2616,8 +2661,11 @@
       <c r="AB18" t="s">
         <v>31</v>
       </c>
+      <c r="AC18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2682,7 +2730,7 @@
         <v>31</v>
       </c>
       <c r="V19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W19" t="s">
         <v>31</v>
@@ -2702,8 +2750,11 @@
       <c r="AB19" t="s">
         <v>31</v>
       </c>
+      <c r="AC19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2788,8 +2839,11 @@
       <c r="AB20" t="s">
         <v>31</v>
       </c>
+      <c r="AC20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2854,10 +2908,10 @@
         <v>31</v>
       </c>
       <c r="V21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X21" t="s">
         <v>31</v>
@@ -2874,8 +2928,11 @@
       <c r="AB21" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="AC21" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2943,7 +3000,7 @@
         <v>31</v>
       </c>
       <c r="W22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X22" t="s">
         <v>31</v>
@@ -2960,8 +3017,11 @@
       <c r="AB22" t="s">
         <v>31</v>
       </c>
+      <c r="AC22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3046,8 +3106,11 @@
       <c r="AB23" t="s">
         <v>31</v>
       </c>
+      <c r="AC23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3132,8 +3195,11 @@
       <c r="AB24" t="s">
         <v>31</v>
       </c>
+      <c r="AC24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3218,8 +3284,11 @@
       <c r="AB25" t="s">
         <v>31</v>
       </c>
+      <c r="AC25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3304,8 +3373,11 @@
       <c r="AB26" t="s">
         <v>31</v>
       </c>
+      <c r="AC26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3390,8 +3462,11 @@
       <c r="AB27" t="s">
         <v>31</v>
       </c>
+      <c r="AC27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3459,7 +3534,7 @@
         <v>31</v>
       </c>
       <c r="W28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X28" t="s">
         <v>31</v>
@@ -3474,7 +3549,10 @@
         <v>31</v>
       </c>
       <c r="AB28" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Documents\GitHub\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83897DD-FCFF-401B-B99B-491E1D388072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188E20C5-2C80-4566-BF1E-52DA71A7FEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -528,7 +528,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W27" sqref="W27"/>
+      <selection pane="bottomRight" activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,6 +1329,9 @@
       <c r="AC3" t="s">
         <v>31</v>
       </c>
+      <c r="AD3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1418,6 +1421,9 @@
       <c r="AC4" t="s">
         <v>31</v>
       </c>
+      <c r="AD4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1507,6 +1513,9 @@
       <c r="AC5" t="s">
         <v>31</v>
       </c>
+      <c r="AD5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1596,6 +1605,9 @@
       <c r="AC6" t="s">
         <v>33</v>
       </c>
+      <c r="AD6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1685,6 +1697,9 @@
       <c r="AC7" t="s">
         <v>31</v>
       </c>
+      <c r="AD7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1774,6 +1789,9 @@
       <c r="AC8" t="s">
         <v>31</v>
       </c>
+      <c r="AD8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1863,6 +1881,9 @@
       <c r="AC9" t="s">
         <v>31</v>
       </c>
+      <c r="AD9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1952,6 +1973,9 @@
       <c r="AC10" t="s">
         <v>31</v>
       </c>
+      <c r="AD10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2041,6 +2065,9 @@
       <c r="AC11" t="s">
         <v>31</v>
       </c>
+      <c r="AD11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2130,6 +2157,9 @@
       <c r="AC12" t="s">
         <v>31</v>
       </c>
+      <c r="AD12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2219,6 +2249,9 @@
       <c r="AC13" t="s">
         <v>31</v>
       </c>
+      <c r="AD13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2308,6 +2341,9 @@
       <c r="AC14" t="s">
         <v>31</v>
       </c>
+      <c r="AD14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2397,6 +2433,9 @@
       <c r="AC15" t="s">
         <v>31</v>
       </c>
+      <c r="AD15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2486,8 +2525,11 @@
       <c r="AC16" t="s">
         <v>31</v>
       </c>
+      <c r="AD16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2575,8 +2617,11 @@
       <c r="AC17" t="s">
         <v>31</v>
       </c>
+      <c r="AD17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2664,8 +2709,11 @@
       <c r="AC18" t="s">
         <v>31</v>
       </c>
+      <c r="AD18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2753,8 +2801,11 @@
       <c r="AC19" t="s">
         <v>31</v>
       </c>
+      <c r="AD19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2842,8 +2893,11 @@
       <c r="AC20" t="s">
         <v>31</v>
       </c>
+      <c r="AD20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +2985,11 @@
       <c r="AC21" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="AD21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3020,8 +3077,11 @@
       <c r="AC22" t="s">
         <v>31</v>
       </c>
+      <c r="AD22" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3109,8 +3169,11 @@
       <c r="AC23" t="s">
         <v>31</v>
       </c>
+      <c r="AD23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3198,8 +3261,11 @@
       <c r="AC24" t="s">
         <v>31</v>
       </c>
+      <c r="AD24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3287,8 +3353,11 @@
       <c r="AC25" t="s">
         <v>31</v>
       </c>
+      <c r="AD25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3376,8 +3445,11 @@
       <c r="AC26" t="s">
         <v>31</v>
       </c>
+      <c r="AD26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3465,8 +3537,11 @@
       <c r="AC27" t="s">
         <v>31</v>
       </c>
+      <c r="AD27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3552,6 +3627,9 @@
         <v>31</v>
       </c>
       <c r="AC28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD28" s="3" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Documents\GitHub\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188E20C5-2C80-4566-BF1E-52DA71A7FEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B8C76-8503-4D3B-A1D9-6807A597BD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -528,7 +528,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD28" sqref="AD28"/>
+      <selection pane="bottomRight" activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,6 +1332,9 @@
       <c r="AD3" t="s">
         <v>31</v>
       </c>
+      <c r="AE3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1424,6 +1427,9 @@
       <c r="AD4" t="s">
         <v>31</v>
       </c>
+      <c r="AE4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1516,6 +1522,9 @@
       <c r="AD5" t="s">
         <v>31</v>
       </c>
+      <c r="AE5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1608,6 +1617,9 @@
       <c r="AD6" t="s">
         <v>33</v>
       </c>
+      <c r="AE6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1700,6 +1712,9 @@
       <c r="AD7" t="s">
         <v>31</v>
       </c>
+      <c r="AE7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1792,6 +1807,9 @@
       <c r="AD8" t="s">
         <v>31</v>
       </c>
+      <c r="AE8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1884,6 +1902,9 @@
       <c r="AD9" t="s">
         <v>33</v>
       </c>
+      <c r="AE9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1976,6 +1997,9 @@
       <c r="AD10" t="s">
         <v>31</v>
       </c>
+      <c r="AE10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2068,6 +2092,9 @@
       <c r="AD11" t="s">
         <v>31</v>
       </c>
+      <c r="AE11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2160,6 +2187,9 @@
       <c r="AD12" t="s">
         <v>31</v>
       </c>
+      <c r="AE12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2252,6 +2282,9 @@
       <c r="AD13" t="s">
         <v>31</v>
       </c>
+      <c r="AE13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2344,6 +2377,9 @@
       <c r="AD14" t="s">
         <v>31</v>
       </c>
+      <c r="AE14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2436,6 +2472,9 @@
       <c r="AD15" t="s">
         <v>31</v>
       </c>
+      <c r="AE15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2528,8 +2567,11 @@
       <c r="AD16" t="s">
         <v>33</v>
       </c>
+      <c r="AE16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2620,8 +2662,11 @@
       <c r="AD17" t="s">
         <v>31</v>
       </c>
+      <c r="AE17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2712,8 +2757,11 @@
       <c r="AD18" t="s">
         <v>31</v>
       </c>
+      <c r="AE18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2804,8 +2852,11 @@
       <c r="AD19" t="s">
         <v>31</v>
       </c>
+      <c r="AE19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2896,8 +2947,11 @@
       <c r="AD20" t="s">
         <v>31</v>
       </c>
+      <c r="AE20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2988,8 +3042,11 @@
       <c r="AD21" t="s">
         <v>33</v>
       </c>
+      <c r="AE21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3080,8 +3137,11 @@
       <c r="AD22" t="s">
         <v>33</v>
       </c>
+      <c r="AE22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3172,8 +3232,11 @@
       <c r="AD23" t="s">
         <v>31</v>
       </c>
+      <c r="AE23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3264,8 +3327,11 @@
       <c r="AD24" t="s">
         <v>31</v>
       </c>
+      <c r="AE24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3356,8 +3422,11 @@
       <c r="AD25" t="s">
         <v>31</v>
       </c>
+      <c r="AE25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3448,8 +3517,11 @@
       <c r="AD26" t="s">
         <v>31</v>
       </c>
+      <c r="AE26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3540,8 +3612,11 @@
       <c r="AD27" t="s">
         <v>31</v>
       </c>
+      <c r="AE27" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3630,6 +3705,9 @@
         <v>31</v>
       </c>
       <c r="AD28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Documents\GitHub\senai2024\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B8C76-8503-4D3B-A1D9-6807A597BD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B247AC8-E0EE-41D0-9630-2F4639909F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -192,6 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +529,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE21" sqref="AE21"/>
+      <selection pane="bottomRight" activeCell="AF5" sqref="C5:AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,6 +1336,9 @@
       <c r="AE3" t="s">
         <v>33</v>
       </c>
+      <c r="AF3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1430,6 +1434,9 @@
       <c r="AE4" t="s">
         <v>31</v>
       </c>
+      <c r="AF4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1525,6 +1532,9 @@
       <c r="AE5" t="s">
         <v>31</v>
       </c>
+      <c r="AF5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1620,6 +1630,9 @@
       <c r="AE6" t="s">
         <v>33</v>
       </c>
+      <c r="AF6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1715,6 +1728,9 @@
       <c r="AE7" t="s">
         <v>31</v>
       </c>
+      <c r="AF7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1810,6 +1826,9 @@
       <c r="AE8" t="s">
         <v>31</v>
       </c>
+      <c r="AF8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1905,6 +1924,9 @@
       <c r="AE9" t="s">
         <v>31</v>
       </c>
+      <c r="AF9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2000,6 +2022,9 @@
       <c r="AE10" t="s">
         <v>31</v>
       </c>
+      <c r="AF10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2095,6 +2120,9 @@
       <c r="AE11" t="s">
         <v>31</v>
       </c>
+      <c r="AF11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2190,6 +2218,9 @@
       <c r="AE12" t="s">
         <v>31</v>
       </c>
+      <c r="AF12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2285,6 +2316,9 @@
       <c r="AE13" t="s">
         <v>31</v>
       </c>
+      <c r="AF13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2380,6 +2414,9 @@
       <c r="AE14" t="s">
         <v>31</v>
       </c>
+      <c r="AF14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2475,6 +2512,9 @@
       <c r="AE15" t="s">
         <v>31</v>
       </c>
+      <c r="AF15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2570,8 +2610,11 @@
       <c r="AE16" t="s">
         <v>33</v>
       </c>
+      <c r="AF16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2665,8 +2708,11 @@
       <c r="AE17" t="s">
         <v>31</v>
       </c>
+      <c r="AF17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2760,8 +2806,11 @@
       <c r="AE18" t="s">
         <v>31</v>
       </c>
+      <c r="AF18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2855,8 +2904,11 @@
       <c r="AE19" t="s">
         <v>31</v>
       </c>
+      <c r="AF19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2950,8 +3002,11 @@
       <c r="AE20" t="s">
         <v>31</v>
       </c>
+      <c r="AF20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3045,8 +3100,11 @@
       <c r="AE21" t="s">
         <v>33</v>
       </c>
+      <c r="AF21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3140,8 +3198,11 @@
       <c r="AE22" t="s">
         <v>31</v>
       </c>
+      <c r="AF22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3235,8 +3296,11 @@
       <c r="AE23" t="s">
         <v>31</v>
       </c>
+      <c r="AF23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3330,8 +3394,11 @@
       <c r="AE24" t="s">
         <v>31</v>
       </c>
+      <c r="AF24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3425,8 +3492,11 @@
       <c r="AE25" t="s">
         <v>31</v>
       </c>
+      <c r="AF25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3520,8 +3590,11 @@
       <c r="AE26" t="s">
         <v>31</v>
       </c>
+      <c r="AF26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3612,11 +3685,14 @@
       <c r="AD27" t="s">
         <v>31</v>
       </c>
-      <c r="AE27" s="3" t="s">
+      <c r="AE27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3704,11 +3780,14 @@
       <c r="AC28" t="s">
         <v>31</v>
       </c>
-      <c r="AD28" s="3" t="s">
+      <c r="AD28" s="5" t="s">
         <v>31</v>
       </c>
       <c r="AE28" t="s">
         <v>31</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B247AC8-E0EE-41D0-9630-2F4639909F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A0EB8-47D6-47F7-880D-723FE13834C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,14 +151,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,11 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,10 +517,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF5" sqref="C5:AF5"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,10 +592,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1339,6 +1330,9 @@
       <c r="AF3" t="s">
         <v>31</v>
       </c>
+      <c r="AG3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1437,6 +1431,9 @@
       <c r="AF4" t="s">
         <v>31</v>
       </c>
+      <c r="AG4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1535,6 +1532,9 @@
       <c r="AF5" t="s">
         <v>31</v>
       </c>
+      <c r="AG5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1633,6 +1633,9 @@
       <c r="AF6" t="s">
         <v>33</v>
       </c>
+      <c r="AG6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1731,6 +1734,9 @@
       <c r="AF7" t="s">
         <v>31</v>
       </c>
+      <c r="AG7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1829,6 +1835,9 @@
       <c r="AF8" t="s">
         <v>31</v>
       </c>
+      <c r="AG8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1927,6 +1936,9 @@
       <c r="AF9" t="s">
         <v>31</v>
       </c>
+      <c r="AG9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2025,6 +2037,9 @@
       <c r="AF10" t="s">
         <v>31</v>
       </c>
+      <c r="AG10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2123,6 +2138,9 @@
       <c r="AF11" t="s">
         <v>33</v>
       </c>
+      <c r="AG11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2221,6 +2239,9 @@
       <c r="AF12" t="s">
         <v>31</v>
       </c>
+      <c r="AG12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2319,6 +2340,9 @@
       <c r="AF13" t="s">
         <v>31</v>
       </c>
+      <c r="AG13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2417,6 +2441,9 @@
       <c r="AF14" t="s">
         <v>31</v>
       </c>
+      <c r="AG14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2515,6 +2542,9 @@
       <c r="AF15" t="s">
         <v>31</v>
       </c>
+      <c r="AG15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2613,8 +2643,11 @@
       <c r="AF16" t="s">
         <v>31</v>
       </c>
+      <c r="AG16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2711,8 +2744,11 @@
       <c r="AF17" t="s">
         <v>31</v>
       </c>
+      <c r="AG17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2809,8 +2845,11 @@
       <c r="AF18" t="s">
         <v>31</v>
       </c>
+      <c r="AG18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2907,8 +2946,11 @@
       <c r="AF19" t="s">
         <v>31</v>
       </c>
+      <c r="AG19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3005,8 +3047,11 @@
       <c r="AF20" t="s">
         <v>31</v>
       </c>
+      <c r="AG20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3088,10 +3133,10 @@
       <c r="AA21" t="s">
         <v>31</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC21" s="3" t="s">
+      <c r="AB21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AD21" t="s">
@@ -3103,8 +3148,11 @@
       <c r="AF21" t="s">
         <v>31</v>
       </c>
+      <c r="AG21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3201,8 +3249,11 @@
       <c r="AF22" t="s">
         <v>31</v>
       </c>
+      <c r="AG22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3299,8 +3350,11 @@
       <c r="AF23" t="s">
         <v>31</v>
       </c>
+      <c r="AG23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3397,8 +3451,11 @@
       <c r="AF24" t="s">
         <v>31</v>
       </c>
+      <c r="AG24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3495,8 +3552,11 @@
       <c r="AF25" t="s">
         <v>31</v>
       </c>
+      <c r="AG25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3593,8 +3653,11 @@
       <c r="AF26" t="s">
         <v>31</v>
       </c>
+      <c r="AG26" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3685,14 +3748,17 @@
       <c r="AD27" t="s">
         <v>31</v>
       </c>
-      <c r="AE27" s="5" t="s">
+      <c r="AE27" t="s">
         <v>31</v>
       </c>
       <c r="AF27" t="s">
         <v>31</v>
       </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3780,7 +3846,7 @@
       <c r="AC28" t="s">
         <v>31</v>
       </c>
-      <c r="AD28" s="5" t="s">
+      <c r="AD28" t="s">
         <v>31</v>
       </c>
       <c r="AE28" t="s">
@@ -3788,6 +3854,9 @@
       </c>
       <c r="AF28" t="s">
         <v>33</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Documents\GitHub\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B8C76-8503-4D3B-A1D9-6807A597BD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D4C5D81-31CC-48C8-80C9-45D74581C137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -525,10 +525,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE21" sqref="AE21"/>
+      <selection pane="bottomRight" activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,6 +1335,18 @@
       <c r="AE3" t="s">
         <v>33</v>
       </c>
+      <c r="AF3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1430,6 +1442,18 @@
       <c r="AE4" t="s">
         <v>31</v>
       </c>
+      <c r="AF4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1525,6 +1549,18 @@
       <c r="AE5" t="s">
         <v>31</v>
       </c>
+      <c r="AF5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1620,6 +1656,18 @@
       <c r="AE6" t="s">
         <v>33</v>
       </c>
+      <c r="AF6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1715,6 +1763,18 @@
       <c r="AE7" t="s">
         <v>31</v>
       </c>
+      <c r="AF7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1810,6 +1870,18 @@
       <c r="AE8" t="s">
         <v>31</v>
       </c>
+      <c r="AF8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1905,6 +1977,18 @@
       <c r="AE9" t="s">
         <v>31</v>
       </c>
+      <c r="AF9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2000,6 +2084,18 @@
       <c r="AE10" t="s">
         <v>31</v>
       </c>
+      <c r="AF10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2095,6 +2191,18 @@
       <c r="AE11" t="s">
         <v>31</v>
       </c>
+      <c r="AF11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2190,6 +2298,18 @@
       <c r="AE12" t="s">
         <v>31</v>
       </c>
+      <c r="AF12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2285,6 +2405,18 @@
       <c r="AE13" t="s">
         <v>31</v>
       </c>
+      <c r="AF13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2380,6 +2512,18 @@
       <c r="AE14" t="s">
         <v>31</v>
       </c>
+      <c r="AF14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2475,6 +2619,18 @@
       <c r="AE15" t="s">
         <v>31</v>
       </c>
+      <c r="AF15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2570,8 +2726,20 @@
       <c r="AE16" t="s">
         <v>33</v>
       </c>
+      <c r="AF16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2665,8 +2833,20 @@
       <c r="AE17" t="s">
         <v>31</v>
       </c>
+      <c r="AF17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2760,8 +2940,20 @@
       <c r="AE18" t="s">
         <v>31</v>
       </c>
+      <c r="AF18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2855,8 +3047,20 @@
       <c r="AE19" t="s">
         <v>31</v>
       </c>
+      <c r="AF19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2950,8 +3154,20 @@
       <c r="AE20" t="s">
         <v>31</v>
       </c>
+      <c r="AF20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3033,10 +3249,10 @@
       <c r="AA21" t="s">
         <v>31</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC21" s="3" t="s">
+      <c r="AB21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC21" t="s">
         <v>31</v>
       </c>
       <c r="AD21" t="s">
@@ -3045,8 +3261,20 @@
       <c r="AE21" t="s">
         <v>33</v>
       </c>
+      <c r="AF21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3140,8 +3368,20 @@
       <c r="AE22" t="s">
         <v>31</v>
       </c>
+      <c r="AF22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3235,8 +3475,20 @@
       <c r="AE23" t="s">
         <v>31</v>
       </c>
+      <c r="AF23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3330,8 +3582,20 @@
       <c r="AE24" t="s">
         <v>31</v>
       </c>
+      <c r="AF24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3425,8 +3689,20 @@
       <c r="AE25" t="s">
         <v>31</v>
       </c>
+      <c r="AF25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3520,8 +3796,20 @@
       <c r="AE26" t="s">
         <v>31</v>
       </c>
+      <c r="AF26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3612,11 +3900,23 @@
       <c r="AD27" t="s">
         <v>31</v>
       </c>
-      <c r="AE27" s="3" t="s">
-        <v>31</v>
+      <c r="AE27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3704,10 +4004,22 @@
       <c r="AC28" t="s">
         <v>31</v>
       </c>
-      <c r="AD28" s="3" t="s">
+      <c r="AD28" t="s">
         <v>31</v>
       </c>
       <c r="AE28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A0EB8-47D6-47F7-880D-723FE13834C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43BE7D5-C4D3-43A4-8EDF-9CF56FF9F0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -517,10 +517,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,6 +1333,12 @@
       <c r="AG3" t="s">
         <v>31</v>
       </c>
+      <c r="AH3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1434,6 +1440,15 @@
       <c r="AG4" t="s">
         <v>31</v>
       </c>
+      <c r="AH4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1535,6 +1550,15 @@
       <c r="AG5" t="s">
         <v>31</v>
       </c>
+      <c r="AH5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1636,6 +1660,15 @@
       <c r="AG6" t="s">
         <v>33</v>
       </c>
+      <c r="AH6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1737,6 +1770,15 @@
       <c r="AG7" t="s">
         <v>31</v>
       </c>
+      <c r="AH7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1838,6 +1880,15 @@
       <c r="AG8" t="s">
         <v>31</v>
       </c>
+      <c r="AH8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1939,6 +1990,15 @@
       <c r="AG9" t="s">
         <v>31</v>
       </c>
+      <c r="AH9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2040,6 +2100,15 @@
       <c r="AG10" t="s">
         <v>31</v>
       </c>
+      <c r="AH10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2141,6 +2210,15 @@
       <c r="AG11" t="s">
         <v>31</v>
       </c>
+      <c r="AH11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2242,6 +2320,15 @@
       <c r="AG12" t="s">
         <v>31</v>
       </c>
+      <c r="AH12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2343,6 +2430,15 @@
       <c r="AG13" t="s">
         <v>31</v>
       </c>
+      <c r="AH13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2444,6 +2540,15 @@
       <c r="AG14" t="s">
         <v>31</v>
       </c>
+      <c r="AH14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2545,6 +2650,15 @@
       <c r="AG15" t="s">
         <v>33</v>
       </c>
+      <c r="AH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2646,8 +2760,17 @@
       <c r="AG16" t="s">
         <v>31</v>
       </c>
+      <c r="AH16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2747,8 +2870,17 @@
       <c r="AG17" t="s">
         <v>31</v>
       </c>
+      <c r="AH17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2848,8 +2980,17 @@
       <c r="AG18" t="s">
         <v>31</v>
       </c>
+      <c r="AH18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2949,8 +3090,17 @@
       <c r="AG19" t="s">
         <v>31</v>
       </c>
+      <c r="AH19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3050,8 +3200,17 @@
       <c r="AG20" t="s">
         <v>31</v>
       </c>
+      <c r="AH20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3133,10 +3292,10 @@
       <c r="AA21" t="s">
         <v>31</v>
       </c>
-      <c r="AB21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC21" s="4" t="s">
+      <c r="AB21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC21" t="s">
         <v>31</v>
       </c>
       <c r="AD21" t="s">
@@ -3151,8 +3310,17 @@
       <c r="AG21" t="s">
         <v>33</v>
       </c>
+      <c r="AH21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3252,8 +3420,17 @@
       <c r="AG22" t="s">
         <v>31</v>
       </c>
+      <c r="AH22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3353,8 +3530,17 @@
       <c r="AG23" t="s">
         <v>31</v>
       </c>
+      <c r="AH23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3454,8 +3640,17 @@
       <c r="AG24" t="s">
         <v>31</v>
       </c>
+      <c r="AH24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3555,8 +3750,17 @@
       <c r="AG25" t="s">
         <v>31</v>
       </c>
+      <c r="AH25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3656,8 +3860,17 @@
       <c r="AG26" t="s">
         <v>33</v>
       </c>
+      <c r="AH26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3757,8 +3970,17 @@
       <c r="AG27" t="s">
         <v>31</v>
       </c>
+      <c r="AH27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3856,6 +4078,15 @@
         <v>33</v>
       </c>
       <c r="AG28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43BE7D5-C4D3-43A4-8EDF-9CF56FF9F0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDFF2AB-F2CA-4A63-9628-AA57E0C414E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,14 +176,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +519,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ9" sqref="AJ9"/>
+      <selection pane="bottomRight" activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1666,7 @@
         <v>31</v>
       </c>
       <c r="AJ6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
@@ -3533,7 +3532,7 @@
       <c r="AH23" t="s">
         <v>31</v>
       </c>
-      <c r="AI23" s="4" t="s">
+      <c r="AI23" t="s">
         <v>31</v>
       </c>
       <c r="AJ23" t="s">

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDFF2AB-F2CA-4A63-9628-AA57E0C414E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75433136-E5B5-4512-9ABD-ED7F53B62EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -516,10 +516,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK8" sqref="AK8"/>
+      <selection pane="bottomRight" activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,6 +1338,15 @@
       <c r="AI3" t="s">
         <v>31</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1448,6 +1457,12 @@
       <c r="AJ4" t="s">
         <v>31</v>
       </c>
+      <c r="AK4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1558,6 +1573,12 @@
       <c r="AJ5" t="s">
         <v>31</v>
       </c>
+      <c r="AK5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1668,6 +1689,12 @@
       <c r="AJ6" t="s">
         <v>31</v>
       </c>
+      <c r="AK6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1778,6 +1805,12 @@
       <c r="AJ7" t="s">
         <v>31</v>
       </c>
+      <c r="AK7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1888,6 +1921,12 @@
       <c r="AJ8" t="s">
         <v>31</v>
       </c>
+      <c r="AK8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1998,6 +2037,12 @@
       <c r="AJ9" t="s">
         <v>31</v>
       </c>
+      <c r="AK9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2108,6 +2153,12 @@
       <c r="AJ10" t="s">
         <v>31</v>
       </c>
+      <c r="AK10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2218,6 +2269,12 @@
       <c r="AJ11" t="s">
         <v>31</v>
       </c>
+      <c r="AK11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2328,6 +2385,12 @@
       <c r="AJ12" t="s">
         <v>31</v>
       </c>
+      <c r="AK12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2438,6 +2501,12 @@
       <c r="AJ13" t="s">
         <v>31</v>
       </c>
+      <c r="AK13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2548,6 +2617,12 @@
       <c r="AJ14" t="s">
         <v>31</v>
       </c>
+      <c r="AK14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2658,6 +2733,12 @@
       <c r="AJ15" t="s">
         <v>31</v>
       </c>
+      <c r="AK15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2768,8 +2849,14 @@
       <c r="AJ16" t="s">
         <v>31</v>
       </c>
+      <c r="AK16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2878,8 +2965,14 @@
       <c r="AJ17" t="s">
         <v>31</v>
       </c>
+      <c r="AK17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2988,8 +3081,14 @@
       <c r="AJ18" t="s">
         <v>31</v>
       </c>
+      <c r="AK18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3098,8 +3197,14 @@
       <c r="AJ19" t="s">
         <v>31</v>
       </c>
+      <c r="AK19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3208,8 +3313,14 @@
       <c r="AJ20" t="s">
         <v>31</v>
       </c>
+      <c r="AK20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3318,8 +3429,14 @@
       <c r="AJ21" t="s">
         <v>31</v>
       </c>
+      <c r="AK21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3428,8 +3545,14 @@
       <c r="AJ22" t="s">
         <v>31</v>
       </c>
+      <c r="AK22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3538,8 +3661,14 @@
       <c r="AJ23" t="s">
         <v>31</v>
       </c>
+      <c r="AK23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3648,8 +3777,14 @@
       <c r="AJ24" t="s">
         <v>31</v>
       </c>
+      <c r="AK24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3758,8 +3893,14 @@
       <c r="AJ25" t="s">
         <v>31</v>
       </c>
+      <c r="AK25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3868,8 +4009,14 @@
       <c r="AJ26" t="s">
         <v>31</v>
       </c>
+      <c r="AK26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3978,8 +4125,14 @@
       <c r="AJ27" t="s">
         <v>31</v>
       </c>
+      <c r="AK27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4086,6 +4239,12 @@
         <v>31</v>
       </c>
       <c r="AJ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75433136-E5B5-4512-9ABD-ED7F53B62EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF2A28B-8661-457B-A54A-4D73A7024AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,13 +184,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +528,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL22" sqref="AL22"/>
+      <selection pane="bottomRight" activeCell="AO25" sqref="AO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,8 +557,9 @@
     <col min="32" max="34" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="7.7109375" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="42" max="44" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1347,6 +1357,9 @@
       <c r="AL3" t="s">
         <v>31</v>
       </c>
+      <c r="AO3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1463,6 +1476,9 @@
       <c r="AL4" t="s">
         <v>31</v>
       </c>
+      <c r="AO4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1579,6 +1595,9 @@
       <c r="AL5" t="s">
         <v>33</v>
       </c>
+      <c r="AO5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1695,6 +1714,9 @@
       <c r="AL6" t="s">
         <v>31</v>
       </c>
+      <c r="AO6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1811,6 +1833,9 @@
       <c r="AL7" t="s">
         <v>31</v>
       </c>
+      <c r="AO7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1927,6 +1952,9 @@
       <c r="AL8" t="s">
         <v>31</v>
       </c>
+      <c r="AO8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2043,6 +2071,9 @@
       <c r="AL9" t="s">
         <v>31</v>
       </c>
+      <c r="AO9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2159,6 +2190,9 @@
       <c r="AL10" t="s">
         <v>31</v>
       </c>
+      <c r="AO10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2275,6 +2309,9 @@
       <c r="AL11" t="s">
         <v>31</v>
       </c>
+      <c r="AO11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2391,6 +2428,9 @@
       <c r="AL12" t="s">
         <v>33</v>
       </c>
+      <c r="AO12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2507,6 +2547,9 @@
       <c r="AL13" t="s">
         <v>31</v>
       </c>
+      <c r="AO13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2623,6 +2666,9 @@
       <c r="AL14" t="s">
         <v>31</v>
       </c>
+      <c r="AO14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2739,6 +2785,9 @@
       <c r="AL15" t="s">
         <v>31</v>
       </c>
+      <c r="AO15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2855,8 +2904,11 @@
       <c r="AL16" t="s">
         <v>33</v>
       </c>
+      <c r="AO16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2971,8 +3023,11 @@
       <c r="AL17" t="s">
         <v>33</v>
       </c>
+      <c r="AO17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3087,8 +3142,11 @@
       <c r="AL18" t="s">
         <v>31</v>
       </c>
+      <c r="AO18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3203,8 +3261,11 @@
       <c r="AL19" t="s">
         <v>33</v>
       </c>
+      <c r="AO19" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3319,8 +3380,11 @@
       <c r="AL20" t="s">
         <v>31</v>
       </c>
+      <c r="AO20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3435,8 +3499,11 @@
       <c r="AL21" t="s">
         <v>31</v>
       </c>
+      <c r="AO21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3551,8 +3618,11 @@
       <c r="AL22" t="s">
         <v>31</v>
       </c>
+      <c r="AO22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3667,8 +3737,11 @@
       <c r="AL23" t="s">
         <v>31</v>
       </c>
+      <c r="AO23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3783,8 +3856,11 @@
       <c r="AL24" t="s">
         <v>31</v>
       </c>
+      <c r="AO24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3899,8 +3975,11 @@
       <c r="AL25" t="s">
         <v>31</v>
       </c>
+      <c r="AO25" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4015,8 +4094,11 @@
       <c r="AL26" t="s">
         <v>31</v>
       </c>
+      <c r="AO26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4131,8 +4213,11 @@
       <c r="AL27" t="s">
         <v>31</v>
       </c>
+      <c r="AO27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4245,6 +4330,9 @@
         <v>31</v>
       </c>
       <c r="AL28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75433136-E5B5-4512-9ABD-ED7F53B62EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C998B4A-2CBE-4893-AF50-D24FE4810BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -176,13 +176,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +520,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL22" sqref="AL22"/>
+      <selection pane="bottomRight" activeCell="AP27" sqref="AP27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,8 +549,9 @@
     <col min="32" max="34" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="7.7109375" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="42" max="44" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1347,6 +1349,12 @@
       <c r="AL3" t="s">
         <v>31</v>
       </c>
+      <c r="AO3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1463,6 +1471,12 @@
       <c r="AL4" t="s">
         <v>31</v>
       </c>
+      <c r="AO4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1579,6 +1593,12 @@
       <c r="AL5" t="s">
         <v>33</v>
       </c>
+      <c r="AO5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1695,6 +1715,12 @@
       <c r="AL6" t="s">
         <v>31</v>
       </c>
+      <c r="AO6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1811,6 +1837,12 @@
       <c r="AL7" t="s">
         <v>31</v>
       </c>
+      <c r="AO7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1927,6 +1959,12 @@
       <c r="AL8" t="s">
         <v>31</v>
       </c>
+      <c r="AO8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2043,6 +2081,12 @@
       <c r="AL9" t="s">
         <v>31</v>
       </c>
+      <c r="AO9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2159,6 +2203,12 @@
       <c r="AL10" t="s">
         <v>31</v>
       </c>
+      <c r="AO10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2275,6 +2325,12 @@
       <c r="AL11" t="s">
         <v>31</v>
       </c>
+      <c r="AO11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2391,6 +2447,12 @@
       <c r="AL12" t="s">
         <v>33</v>
       </c>
+      <c r="AO12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2507,6 +2569,12 @@
       <c r="AL13" t="s">
         <v>31</v>
       </c>
+      <c r="AO13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2623,6 +2691,12 @@
       <c r="AL14" t="s">
         <v>31</v>
       </c>
+      <c r="AO14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2739,6 +2813,12 @@
       <c r="AL15" t="s">
         <v>31</v>
       </c>
+      <c r="AO15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2855,8 +2935,14 @@
       <c r="AL16" t="s">
         <v>33</v>
       </c>
+      <c r="AO16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2971,8 +3057,14 @@
       <c r="AL17" t="s">
         <v>33</v>
       </c>
+      <c r="AO17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3087,8 +3179,14 @@
       <c r="AL18" t="s">
         <v>31</v>
       </c>
+      <c r="AO18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3203,8 +3301,14 @@
       <c r="AL19" t="s">
         <v>33</v>
       </c>
+      <c r="AO19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3319,8 +3423,14 @@
       <c r="AL20" t="s">
         <v>31</v>
       </c>
+      <c r="AO20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3418,7 +3528,7 @@
         <v>31</v>
       </c>
       <c r="AG21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AH21" t="s">
         <v>31</v>
@@ -3435,8 +3545,14 @@
       <c r="AL21" t="s">
         <v>31</v>
       </c>
+      <c r="AO21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3551,8 +3667,14 @@
       <c r="AL22" t="s">
         <v>31</v>
       </c>
+      <c r="AO22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3667,8 +3789,14 @@
       <c r="AL23" t="s">
         <v>31</v>
       </c>
+      <c r="AO23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3783,8 +3911,14 @@
       <c r="AL24" t="s">
         <v>31</v>
       </c>
+      <c r="AO24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3899,8 +4033,14 @@
       <c r="AL25" t="s">
         <v>31</v>
       </c>
+      <c r="AO25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4015,8 +4155,14 @@
       <c r="AL26" t="s">
         <v>31</v>
       </c>
+      <c r="AO26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4131,8 +4277,14 @@
       <c r="AL27" t="s">
         <v>31</v>
       </c>
+      <c r="AO27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4245,6 +4397,12 @@
         <v>31</v>
       </c>
       <c r="AL28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C998B4A-2CBE-4893-AF50-D24FE4810BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9326A4C-25EA-4823-9351-2CE2D63426BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,14 +176,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +519,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP27" sqref="AP27"/>
+      <selection pane="bottomRight" activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,7 +4032,7 @@
       <c r="AL25" t="s">
         <v>31</v>
       </c>
-      <c r="AO25" s="4" t="s">
+      <c r="AO25" t="s">
         <v>31</v>
       </c>
       <c r="AP25" t="s">

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9326A4C-25EA-4823-9351-2CE2D63426BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D322EBC4-F8AA-4CA2-8472-DE94674BEA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -519,7 +519,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ6" sqref="AQ6"/>
+      <selection pane="bottomRight" activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,6 +1354,12 @@
       <c r="AP3" t="s">
         <v>31</v>
       </c>
+      <c r="AQ3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1476,6 +1482,12 @@
       <c r="AP4" t="s">
         <v>31</v>
       </c>
+      <c r="AQ4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1598,6 +1610,12 @@
       <c r="AP5" t="s">
         <v>31</v>
       </c>
+      <c r="AQ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1720,6 +1738,12 @@
       <c r="AP6" t="s">
         <v>31</v>
       </c>
+      <c r="AQ6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1842,6 +1866,12 @@
       <c r="AP7" t="s">
         <v>31</v>
       </c>
+      <c r="AQ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1964,6 +1994,12 @@
       <c r="AP8" t="s">
         <v>31</v>
       </c>
+      <c r="AQ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2086,6 +2122,12 @@
       <c r="AP9" t="s">
         <v>31</v>
       </c>
+      <c r="AQ9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2208,6 +2250,12 @@
       <c r="AP10" t="s">
         <v>31</v>
       </c>
+      <c r="AQ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2330,6 +2378,12 @@
       <c r="AP11" t="s">
         <v>33</v>
       </c>
+      <c r="AQ11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2452,6 +2506,12 @@
       <c r="AP12" t="s">
         <v>31</v>
       </c>
+      <c r="AQ12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2574,6 +2634,12 @@
       <c r="AP13" t="s">
         <v>31</v>
       </c>
+      <c r="AQ13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2696,6 +2762,12 @@
       <c r="AP14" t="s">
         <v>31</v>
       </c>
+      <c r="AQ14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2818,6 +2890,12 @@
       <c r="AP15" t="s">
         <v>31</v>
       </c>
+      <c r="AQ15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2940,8 +3018,14 @@
       <c r="AP16" t="s">
         <v>31</v>
       </c>
+      <c r="AQ16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3062,8 +3146,14 @@
       <c r="AP17" t="s">
         <v>31</v>
       </c>
+      <c r="AQ17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3184,8 +3274,14 @@
       <c r="AP18" t="s">
         <v>31</v>
       </c>
+      <c r="AQ18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3306,8 +3402,14 @@
       <c r="AP19" t="s">
         <v>31</v>
       </c>
+      <c r="AQ19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3428,8 +3530,14 @@
       <c r="AP20" t="s">
         <v>31</v>
       </c>
+      <c r="AQ20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3550,8 +3658,14 @@
       <c r="AP21" t="s">
         <v>31</v>
       </c>
+      <c r="AQ21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3672,8 +3786,14 @@
       <c r="AP22" t="s">
         <v>31</v>
       </c>
+      <c r="AQ22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3794,8 +3914,14 @@
       <c r="AP23" t="s">
         <v>31</v>
       </c>
+      <c r="AQ23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3916,8 +4042,14 @@
       <c r="AP24" t="s">
         <v>31</v>
       </c>
+      <c r="AQ24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4038,8 +4170,14 @@
       <c r="AP25" t="s">
         <v>31</v>
       </c>
+      <c r="AQ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4160,8 +4298,14 @@
       <c r="AP26" t="s">
         <v>31</v>
       </c>
+      <c r="AQ26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4282,8 +4426,14 @@
       <c r="AP27" t="s">
         <v>31</v>
       </c>
+      <c r="AQ27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4402,6 +4552,12 @@
         <v>31</v>
       </c>
       <c r="AP28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Documents\GitHub\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D322EBC4-F8AA-4CA2-8472-DE94674BEA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41F62B-13D5-4383-B486-10F5431326B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -516,10 +516,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR7" sqref="AR7"/>
+      <selection pane="bottomRight" activeCell="AT29" sqref="AT29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,6 +1360,9 @@
       <c r="AR3" t="s">
         <v>31</v>
       </c>
+      <c r="AS3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1488,6 +1491,9 @@
       <c r="AR4" t="s">
         <v>31</v>
       </c>
+      <c r="AS4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1616,6 +1622,9 @@
       <c r="AR5" t="s">
         <v>31</v>
       </c>
+      <c r="AS5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1744,6 +1753,9 @@
       <c r="AR6" t="s">
         <v>31</v>
       </c>
+      <c r="AS6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1872,6 +1884,9 @@
       <c r="AR7" t="s">
         <v>31</v>
       </c>
+      <c r="AS7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2000,6 +2015,9 @@
       <c r="AR8" t="s">
         <v>31</v>
       </c>
+      <c r="AS8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2128,6 +2146,9 @@
       <c r="AR9" t="s">
         <v>31</v>
       </c>
+      <c r="AS9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2256,6 +2277,9 @@
       <c r="AR10" t="s">
         <v>31</v>
       </c>
+      <c r="AS10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2384,6 +2408,9 @@
       <c r="AR11" t="s">
         <v>31</v>
       </c>
+      <c r="AS11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2512,6 +2539,9 @@
       <c r="AR12" t="s">
         <v>31</v>
       </c>
+      <c r="AS12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2640,6 +2670,9 @@
       <c r="AR13" t="s">
         <v>31</v>
       </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2768,6 +2801,9 @@
       <c r="AR14" t="s">
         <v>31</v>
       </c>
+      <c r="AS14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2896,6 +2932,9 @@
       <c r="AR15" t="s">
         <v>31</v>
       </c>
+      <c r="AS15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3024,8 +3063,11 @@
       <c r="AR16" t="s">
         <v>31</v>
       </c>
+      <c r="AS16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3152,8 +3194,11 @@
       <c r="AR17" t="s">
         <v>33</v>
       </c>
+      <c r="AS17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3280,8 +3325,11 @@
       <c r="AR18" t="s">
         <v>31</v>
       </c>
+      <c r="AS18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3408,8 +3456,11 @@
       <c r="AR19" t="s">
         <v>31</v>
       </c>
+      <c r="AS19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3536,8 +3587,11 @@
       <c r="AR20" t="s">
         <v>31</v>
       </c>
+      <c r="AS20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3664,8 +3718,11 @@
       <c r="AR21" t="s">
         <v>33</v>
       </c>
+      <c r="AS21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3792,8 +3849,11 @@
       <c r="AR22" t="s">
         <v>31</v>
       </c>
+      <c r="AS22" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3920,8 +3980,11 @@
       <c r="AR23" t="s">
         <v>31</v>
       </c>
+      <c r="AS23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4048,8 +4111,11 @@
       <c r="AR24" t="s">
         <v>33</v>
       </c>
+      <c r="AS24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4176,8 +4242,11 @@
       <c r="AR25" t="s">
         <v>31</v>
       </c>
+      <c r="AS25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4304,8 +4373,11 @@
       <c r="AR26" t="s">
         <v>31</v>
       </c>
+      <c r="AS26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4432,8 +4504,11 @@
       <c r="AR27" t="s">
         <v>31</v>
       </c>
+      <c r="AS27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4558,6 +4633,9 @@
         <v>31</v>
       </c>
       <c r="AR28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D322EBC4-F8AA-4CA2-8472-DE94674BEA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8324654-E5CE-4C18-B645-4EF7EB5C53AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -519,7 +519,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR7" sqref="AR7"/>
+      <selection pane="bottomRight" activeCell="AT28" sqref="AT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,6 +1360,15 @@
       <c r="AR3" t="s">
         <v>31</v>
       </c>
+      <c r="AS3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1488,6 +1497,15 @@
       <c r="AR4" t="s">
         <v>31</v>
       </c>
+      <c r="AS4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1616,6 +1634,15 @@
       <c r="AR5" t="s">
         <v>31</v>
       </c>
+      <c r="AS5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1744,6 +1771,15 @@
       <c r="AR6" t="s">
         <v>31</v>
       </c>
+      <c r="AS6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1872,6 +1908,15 @@
       <c r="AR7" t="s">
         <v>31</v>
       </c>
+      <c r="AS7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2000,6 +2045,15 @@
       <c r="AR8" t="s">
         <v>31</v>
       </c>
+      <c r="AS8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2128,6 +2182,15 @@
       <c r="AR9" t="s">
         <v>31</v>
       </c>
+      <c r="AS9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2256,6 +2319,15 @@
       <c r="AR10" t="s">
         <v>31</v>
       </c>
+      <c r="AS10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2384,6 +2456,15 @@
       <c r="AR11" t="s">
         <v>31</v>
       </c>
+      <c r="AS11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2512,6 +2593,15 @@
       <c r="AR12" t="s">
         <v>31</v>
       </c>
+      <c r="AS12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2640,6 +2730,15 @@
       <c r="AR13" t="s">
         <v>31</v>
       </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2768,6 +2867,15 @@
       <c r="AR14" t="s">
         <v>31</v>
       </c>
+      <c r="AS14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2896,6 +3004,15 @@
       <c r="AR15" t="s">
         <v>31</v>
       </c>
+      <c r="AS15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3024,8 +3141,17 @@
       <c r="AR16" t="s">
         <v>31</v>
       </c>
+      <c r="AS16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3150,10 +3276,19 @@
         <v>31</v>
       </c>
       <c r="AR17" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3280,8 +3415,17 @@
       <c r="AR18" t="s">
         <v>31</v>
       </c>
+      <c r="AS18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3408,8 +3552,17 @@
       <c r="AR19" t="s">
         <v>31</v>
       </c>
+      <c r="AS19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3536,8 +3689,17 @@
       <c r="AR20" t="s">
         <v>31</v>
       </c>
+      <c r="AS20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3664,8 +3826,17 @@
       <c r="AR21" t="s">
         <v>33</v>
       </c>
+      <c r="AS21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3792,8 +3963,17 @@
       <c r="AR22" t="s">
         <v>31</v>
       </c>
+      <c r="AS22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3920,8 +4100,17 @@
       <c r="AR23" t="s">
         <v>31</v>
       </c>
+      <c r="AS23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4048,8 +4237,17 @@
       <c r="AR24" t="s">
         <v>33</v>
       </c>
+      <c r="AS24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4176,8 +4374,17 @@
       <c r="AR25" t="s">
         <v>31</v>
       </c>
+      <c r="AS25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4304,8 +4511,17 @@
       <c r="AR26" t="s">
         <v>31</v>
       </c>
+      <c r="AS26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4432,8 +4648,17 @@
       <c r="AR27" t="s">
         <v>31</v>
       </c>
+      <c r="AS27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4558,6 +4783,15 @@
         <v>31</v>
       </c>
       <c r="AR28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8324654-E5CE-4C18-B645-4EF7EB5C53AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD893A8-C3A9-49BF-9BB0-FACA96F6DFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="34">
   <si>
     <t>Alunos</t>
   </si>
@@ -519,7 +519,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT28" sqref="AT28"/>
+      <selection pane="bottomRight" activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,6 +1369,9 @@
       <c r="AU3" t="s">
         <v>33</v>
       </c>
+      <c r="AV3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1506,6 +1509,9 @@
       <c r="AU4" t="s">
         <v>31</v>
       </c>
+      <c r="AV4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1643,6 +1649,9 @@
       <c r="AU5" t="s">
         <v>31</v>
       </c>
+      <c r="AV5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1780,6 +1789,9 @@
       <c r="AU6" t="s">
         <v>33</v>
       </c>
+      <c r="AV6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1917,6 +1929,9 @@
       <c r="AU7" t="s">
         <v>31</v>
       </c>
+      <c r="AV7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2054,6 +2069,9 @@
       <c r="AU8" t="s">
         <v>31</v>
       </c>
+      <c r="AV8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2191,6 +2209,9 @@
       <c r="AU9" t="s">
         <v>31</v>
       </c>
+      <c r="AV9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2328,6 +2349,9 @@
       <c r="AU10" t="s">
         <v>31</v>
       </c>
+      <c r="AV10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2465,6 +2489,9 @@
       <c r="AU11" t="s">
         <v>33</v>
       </c>
+      <c r="AV11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2602,6 +2629,9 @@
       <c r="AU12" t="s">
         <v>31</v>
       </c>
+      <c r="AV12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2739,6 +2769,9 @@
       <c r="AU13" t="s">
         <v>31</v>
       </c>
+      <c r="AV13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2876,6 +2909,9 @@
       <c r="AU14" t="s">
         <v>31</v>
       </c>
+      <c r="AV14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3013,6 +3049,9 @@
       <c r="AU15" t="s">
         <v>31</v>
       </c>
+      <c r="AV15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3150,8 +3189,11 @@
       <c r="AU16" t="s">
         <v>31</v>
       </c>
+      <c r="AV16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3287,8 +3329,11 @@
       <c r="AU17" t="s">
         <v>31</v>
       </c>
+      <c r="AV17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3424,8 +3469,11 @@
       <c r="AU18" t="s">
         <v>31</v>
       </c>
+      <c r="AV18" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3561,8 +3609,11 @@
       <c r="AU19" t="s">
         <v>31</v>
       </c>
+      <c r="AV19" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3698,8 +3749,11 @@
       <c r="AU20" t="s">
         <v>31</v>
       </c>
+      <c r="AV20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3835,8 +3889,11 @@
       <c r="AU21" t="s">
         <v>31</v>
       </c>
+      <c r="AV21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3972,8 +4029,11 @@
       <c r="AU22" t="s">
         <v>33</v>
       </c>
+      <c r="AV22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4109,8 +4169,11 @@
       <c r="AU23" t="s">
         <v>31</v>
       </c>
+      <c r="AV23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4246,8 +4309,11 @@
       <c r="AU24" t="s">
         <v>33</v>
       </c>
+      <c r="AV24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4383,8 +4449,11 @@
       <c r="AU25" t="s">
         <v>31</v>
       </c>
+      <c r="AV25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4520,8 +4589,11 @@
       <c r="AU26" t="s">
         <v>31</v>
       </c>
+      <c r="AV26" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4657,8 +4729,11 @@
       <c r="AU27" t="s">
         <v>31</v>
       </c>
+      <c r="AV27" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4792,6 +4867,9 @@
         <v>31</v>
       </c>
       <c r="AU28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Documents\GitHub\senai2024\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41F62B-13D5-4383-B486-10F5431326B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ED8619-E814-447D-A728-55FFDC6F32CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>FER</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT29" sqref="AT29"/>
+      <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,9 +551,8 @@
     <col min="32" max="34" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="37" max="39" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="42" max="44" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1348,6 +1350,12 @@
       <c r="AL3" t="s">
         <v>31</v>
       </c>
+      <c r="AM3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>34</v>
+      </c>
       <c r="AO3" t="s">
         <v>31</v>
       </c>
@@ -1361,6 +1369,27 @@
         <v>31</v>
       </c>
       <c r="AS3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1479,6 +1508,12 @@
       <c r="AL4" t="s">
         <v>31</v>
       </c>
+      <c r="AM4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>34</v>
+      </c>
       <c r="AO4" t="s">
         <v>31</v>
       </c>
@@ -1493,6 +1528,27 @@
       </c>
       <c r="AS4" t="s">
         <v>33</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
@@ -1610,6 +1666,12 @@
       <c r="AL5" t="s">
         <v>33</v>
       </c>
+      <c r="AM5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>34</v>
+      </c>
       <c r="AO5" t="s">
         <v>31</v>
       </c>
@@ -1623,6 +1685,27 @@
         <v>31</v>
       </c>
       <c r="AS5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1741,6 +1824,12 @@
       <c r="AL6" t="s">
         <v>31</v>
       </c>
+      <c r="AM6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>34</v>
+      </c>
       <c r="AO6" t="s">
         <v>31</v>
       </c>
@@ -1755,6 +1844,27 @@
       </c>
       <c r="AS6" t="s">
         <v>33</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
@@ -1872,6 +1982,12 @@
       <c r="AL7" t="s">
         <v>31</v>
       </c>
+      <c r="AM7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>34</v>
+      </c>
       <c r="AO7" t="s">
         <v>31</v>
       </c>
@@ -1885,6 +2001,27 @@
         <v>31</v>
       </c>
       <c r="AS7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2003,6 +2140,12 @@
       <c r="AL8" t="s">
         <v>31</v>
       </c>
+      <c r="AM8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>34</v>
+      </c>
       <c r="AO8" t="s">
         <v>31</v>
       </c>
@@ -2016,6 +2159,27 @@
         <v>31</v>
       </c>
       <c r="AS8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2134,6 +2298,12 @@
       <c r="AL9" t="s">
         <v>31</v>
       </c>
+      <c r="AM9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>34</v>
+      </c>
       <c r="AO9" t="s">
         <v>31</v>
       </c>
@@ -2147,6 +2317,27 @@
         <v>31</v>
       </c>
       <c r="AS9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2265,6 +2456,12 @@
       <c r="AL10" t="s">
         <v>31</v>
       </c>
+      <c r="AM10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>34</v>
+      </c>
       <c r="AO10" t="s">
         <v>31</v>
       </c>
@@ -2278,6 +2475,27 @@
         <v>31</v>
       </c>
       <c r="AS10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2396,6 +2614,12 @@
       <c r="AL11" t="s">
         <v>31</v>
       </c>
+      <c r="AM11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>34</v>
+      </c>
       <c r="AO11" t="s">
         <v>31</v>
       </c>
@@ -2410,6 +2634,27 @@
       </c>
       <c r="AS11" t="s">
         <v>33</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
@@ -2527,6 +2772,12 @@
       <c r="AL12" t="s">
         <v>33</v>
       </c>
+      <c r="AM12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>34</v>
+      </c>
       <c r="AO12" t="s">
         <v>31</v>
       </c>
@@ -2540,6 +2791,27 @@
         <v>31</v>
       </c>
       <c r="AS12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2658,6 +2930,12 @@
       <c r="AL13" t="s">
         <v>31</v>
       </c>
+      <c r="AM13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>34</v>
+      </c>
       <c r="AO13" t="s">
         <v>31</v>
       </c>
@@ -2671,6 +2949,27 @@
         <v>31</v>
       </c>
       <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2789,6 +3088,12 @@
       <c r="AL14" t="s">
         <v>31</v>
       </c>
+      <c r="AM14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>34</v>
+      </c>
       <c r="AO14" t="s">
         <v>31</v>
       </c>
@@ -2802,6 +3107,27 @@
         <v>31</v>
       </c>
       <c r="AS14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2920,6 +3246,12 @@
       <c r="AL15" t="s">
         <v>31</v>
       </c>
+      <c r="AM15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>34</v>
+      </c>
       <c r="AO15" t="s">
         <v>31</v>
       </c>
@@ -2933,6 +3265,27 @@
         <v>31</v>
       </c>
       <c r="AS15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3051,6 +3404,12 @@
       <c r="AL16" t="s">
         <v>33</v>
       </c>
+      <c r="AM16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>34</v>
+      </c>
       <c r="AO16" t="s">
         <v>31</v>
       </c>
@@ -3066,8 +3425,29 @@
       <c r="AS16" t="s">
         <v>33</v>
       </c>
+      <c r="AT16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3182,6 +3562,12 @@
       <c r="AL17" t="s">
         <v>33</v>
       </c>
+      <c r="AM17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>34</v>
+      </c>
       <c r="AO17" t="s">
         <v>31</v>
       </c>
@@ -3197,8 +3583,29 @@
       <c r="AS17" t="s">
         <v>31</v>
       </c>
+      <c r="AT17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3313,6 +3720,12 @@
       <c r="AL18" t="s">
         <v>31</v>
       </c>
+      <c r="AM18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>34</v>
+      </c>
       <c r="AO18" t="s">
         <v>31</v>
       </c>
@@ -3328,8 +3741,29 @@
       <c r="AS18" t="s">
         <v>31</v>
       </c>
+      <c r="AT18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3444,6 +3878,12 @@
       <c r="AL19" t="s">
         <v>33</v>
       </c>
+      <c r="AM19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>34</v>
+      </c>
       <c r="AO19" t="s">
         <v>33</v>
       </c>
@@ -3459,8 +3899,29 @@
       <c r="AS19" t="s">
         <v>31</v>
       </c>
+      <c r="AT19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3575,6 +4036,12 @@
       <c r="AL20" t="s">
         <v>31</v>
       </c>
+      <c r="AM20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>34</v>
+      </c>
       <c r="AO20" t="s">
         <v>31</v>
       </c>
@@ -3590,8 +4057,29 @@
       <c r="AS20" t="s">
         <v>31</v>
       </c>
+      <c r="AT20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3706,6 +4194,12 @@
       <c r="AL21" t="s">
         <v>31</v>
       </c>
+      <c r="AM21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>34</v>
+      </c>
       <c r="AO21" t="s">
         <v>31</v>
       </c>
@@ -3721,8 +4215,29 @@
       <c r="AS21" t="s">
         <v>31</v>
       </c>
+      <c r="AT21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3837,6 +4352,12 @@
       <c r="AL22" t="s">
         <v>31</v>
       </c>
+      <c r="AM22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>34</v>
+      </c>
       <c r="AO22" t="s">
         <v>31</v>
       </c>
@@ -3852,8 +4373,29 @@
       <c r="AS22" t="s">
         <v>33</v>
       </c>
+      <c r="AT22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3968,6 +4510,12 @@
       <c r="AL23" t="s">
         <v>31</v>
       </c>
+      <c r="AM23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>34</v>
+      </c>
       <c r="AO23" t="s">
         <v>31</v>
       </c>
@@ -3983,8 +4531,29 @@
       <c r="AS23" t="s">
         <v>31</v>
       </c>
+      <c r="AT23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4099,6 +4668,12 @@
       <c r="AL24" t="s">
         <v>31</v>
       </c>
+      <c r="AM24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>34</v>
+      </c>
       <c r="AO24" t="s">
         <v>31</v>
       </c>
@@ -4114,8 +4689,29 @@
       <c r="AS24" t="s">
         <v>31</v>
       </c>
+      <c r="AT24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4230,6 +4826,12 @@
       <c r="AL25" t="s">
         <v>31</v>
       </c>
+      <c r="AM25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>34</v>
+      </c>
       <c r="AO25" t="s">
         <v>31</v>
       </c>
@@ -4245,8 +4847,29 @@
       <c r="AS25" t="s">
         <v>31</v>
       </c>
+      <c r="AT25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4361,6 +4984,12 @@
       <c r="AL26" t="s">
         <v>31</v>
       </c>
+      <c r="AM26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>34</v>
+      </c>
       <c r="AO26" t="s">
         <v>31</v>
       </c>
@@ -4376,8 +5005,29 @@
       <c r="AS26" t="s">
         <v>31</v>
       </c>
+      <c r="AT26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4492,6 +5142,12 @@
       <c r="AL27" t="s">
         <v>31</v>
       </c>
+      <c r="AM27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>34</v>
+      </c>
       <c r="AO27" t="s">
         <v>31</v>
       </c>
@@ -4507,8 +5163,29 @@
       <c r="AS27" t="s">
         <v>31</v>
       </c>
+      <c r="AT27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4623,6 +5300,12 @@
       <c r="AL28" t="s">
         <v>31</v>
       </c>
+      <c r="AM28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>34</v>
+      </c>
       <c r="AO28" t="s">
         <v>31</v>
       </c>
@@ -4636,6 +5319,27 @@
         <v>31</v>
       </c>
       <c r="AS28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ED8619-E814-447D-A728-55FFDC6F32CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821A797-CC96-49B5-A9BC-46C6D03C2804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821A797-CC96-49B5-A9BC-46C6D03C2804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C43C29A-A660-4ABE-AA4D-564F542D3E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -522,7 +522,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="BA27" sqref="BA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,6 +1392,9 @@
       <c r="AZ3" t="s">
         <v>31</v>
       </c>
+      <c r="BA3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1550,6 +1553,9 @@
       <c r="AZ4" t="s">
         <v>31</v>
       </c>
+      <c r="BA4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1708,6 +1714,9 @@
       <c r="AZ5" t="s">
         <v>31</v>
       </c>
+      <c r="BA5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1866,6 +1875,9 @@
       <c r="AZ6" t="s">
         <v>31</v>
       </c>
+      <c r="BA6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2024,6 +2036,9 @@
       <c r="AZ7" t="s">
         <v>31</v>
       </c>
+      <c r="BA7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2182,6 +2197,9 @@
       <c r="AZ8" t="s">
         <v>31</v>
       </c>
+      <c r="BA8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2340,6 +2358,9 @@
       <c r="AZ9" t="s">
         <v>31</v>
       </c>
+      <c r="BA9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2498,6 +2519,9 @@
       <c r="AZ10" t="s">
         <v>31</v>
       </c>
+      <c r="BA10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2656,6 +2680,9 @@
       <c r="AZ11" t="s">
         <v>31</v>
       </c>
+      <c r="BA11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2814,6 +2841,9 @@
       <c r="AZ12" t="s">
         <v>31</v>
       </c>
+      <c r="BA12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2972,6 +3002,9 @@
       <c r="AZ13" t="s">
         <v>31</v>
       </c>
+      <c r="BA13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3130,6 +3163,9 @@
       <c r="AZ14" t="s">
         <v>31</v>
       </c>
+      <c r="BA14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3288,6 +3324,9 @@
       <c r="AZ15" t="s">
         <v>31</v>
       </c>
+      <c r="BA15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3446,8 +3485,11 @@
       <c r="AZ16" t="s">
         <v>33</v>
       </c>
+      <c r="BA16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3604,8 +3646,11 @@
       <c r="AZ17" t="s">
         <v>31</v>
       </c>
+      <c r="BA17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3762,8 +3807,11 @@
       <c r="AZ18" t="s">
         <v>31</v>
       </c>
+      <c r="BA18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3920,8 +3968,11 @@
       <c r="AZ19" t="s">
         <v>31</v>
       </c>
+      <c r="BA19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4078,8 +4129,11 @@
       <c r="AZ20" t="s">
         <v>31</v>
       </c>
+      <c r="BA20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4236,8 +4290,11 @@
       <c r="AZ21" t="s">
         <v>31</v>
       </c>
+      <c r="BA21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4394,8 +4451,11 @@
       <c r="AZ22" t="s">
         <v>31</v>
       </c>
+      <c r="BA22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4552,8 +4612,11 @@
       <c r="AZ23" t="s">
         <v>31</v>
       </c>
+      <c r="BA23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4710,8 +4773,11 @@
       <c r="AZ24" t="s">
         <v>31</v>
       </c>
+      <c r="BA24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4868,8 +4934,11 @@
       <c r="AZ25" t="s">
         <v>31</v>
       </c>
+      <c r="BA25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5026,8 +5095,11 @@
       <c r="AZ26" t="s">
         <v>33</v>
       </c>
+      <c r="BA26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5184,8 +5256,11 @@
       <c r="AZ27" t="s">
         <v>31</v>
       </c>
+      <c r="BA27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -5341,6 +5416,9 @@
       </c>
       <c r="AZ28" t="s">
         <v>31</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C43C29A-A660-4ABE-AA4D-564F542D3E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C4F861-D75C-4653-BC7C-03838E27B48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -519,10 +519,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA27" sqref="BA27"/>
+      <selection pane="bottomRight" activeCell="BB25" sqref="BB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,6 +1395,9 @@
       <c r="BA3" t="s">
         <v>31</v>
       </c>
+      <c r="BB3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1556,6 +1559,9 @@
       <c r="BA4" t="s">
         <v>31</v>
       </c>
+      <c r="BB4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1717,6 +1723,9 @@
       <c r="BA5" t="s">
         <v>31</v>
       </c>
+      <c r="BB5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1878,6 +1887,9 @@
       <c r="BA6" t="s">
         <v>31</v>
       </c>
+      <c r="BB6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2039,6 +2051,9 @@
       <c r="BA7" t="s">
         <v>33</v>
       </c>
+      <c r="BB7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2200,6 +2215,9 @@
       <c r="BA8" t="s">
         <v>31</v>
       </c>
+      <c r="BB8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2361,6 +2379,9 @@
       <c r="BA9" t="s">
         <v>31</v>
       </c>
+      <c r="BB9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2522,6 +2543,9 @@
       <c r="BA10" t="s">
         <v>31</v>
       </c>
+      <c r="BB10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2683,6 +2707,9 @@
       <c r="BA11" t="s">
         <v>31</v>
       </c>
+      <c r="BB11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2844,6 +2871,9 @@
       <c r="BA12" t="s">
         <v>31</v>
       </c>
+      <c r="BB12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3005,6 +3035,9 @@
       <c r="BA13" t="s">
         <v>31</v>
       </c>
+      <c r="BB13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3166,6 +3199,9 @@
       <c r="BA14" t="s">
         <v>31</v>
       </c>
+      <c r="BB14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3327,6 +3363,9 @@
       <c r="BA15" t="s">
         <v>31</v>
       </c>
+      <c r="BB15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3488,8 +3527,11 @@
       <c r="BA16" t="s">
         <v>33</v>
       </c>
+      <c r="BB16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3649,8 +3691,11 @@
       <c r="BA17" t="s">
         <v>31</v>
       </c>
+      <c r="BB17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3810,8 +3855,11 @@
       <c r="BA18" t="s">
         <v>31</v>
       </c>
+      <c r="BB18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3971,8 +4019,11 @@
       <c r="BA19" t="s">
         <v>31</v>
       </c>
+      <c r="BB19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4132,8 +4183,11 @@
       <c r="BA20" t="s">
         <v>31</v>
       </c>
+      <c r="BB20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4293,8 +4347,11 @@
       <c r="BA21" t="s">
         <v>33</v>
       </c>
+      <c r="BB21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4454,8 +4511,11 @@
       <c r="BA22" t="s">
         <v>31</v>
       </c>
+      <c r="BB22" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4615,8 +4675,11 @@
       <c r="BA23" t="s">
         <v>31</v>
       </c>
+      <c r="BB23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4776,8 +4839,11 @@
       <c r="BA24" t="s">
         <v>31</v>
       </c>
+      <c r="BB24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4937,8 +5003,11 @@
       <c r="BA25" t="s">
         <v>31</v>
       </c>
+      <c r="BB25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5098,8 +5167,11 @@
       <c r="BA26" t="s">
         <v>31</v>
       </c>
+      <c r="BB26" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5259,8 +5331,11 @@
       <c r="BA27" t="s">
         <v>31</v>
       </c>
+      <c r="BB27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -5419,6 +5494,9 @@
       </c>
       <c r="BA28" t="s">
         <v>33</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C4F861-D75C-4653-BC7C-03838E27B48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894F49AB-6E0C-4702-934B-106AC649E4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,10 +519,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BB25" sqref="BB25"/>
+      <selection pane="bottomRight" activeCell="BB28" sqref="BB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,7 +3528,7 @@
         <v>33</v>
       </c>
       <c r="BB16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Documents\GitHub\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894F49AB-6E0C-4702-934B-106AC649E4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9852B6-C2CB-4AAF-9D6C-6AC32C8560D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +154,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,13 +187,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +531,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BB28" sqref="BB28"/>
+      <selection pane="bottomRight" activeCell="BD28" sqref="BD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,6 +1407,12 @@
       <c r="BB3" t="s">
         <v>31</v>
       </c>
+      <c r="BC3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1562,6 +1577,12 @@
       <c r="BB4" t="s">
         <v>31</v>
       </c>
+      <c r="BC4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1726,6 +1747,12 @@
       <c r="BB5" t="s">
         <v>31</v>
       </c>
+      <c r="BC5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1890,6 +1917,12 @@
       <c r="BB6" t="s">
         <v>31</v>
       </c>
+      <c r="BC6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2054,6 +2087,12 @@
       <c r="BB7" t="s">
         <v>31</v>
       </c>
+      <c r="BC7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2218,6 +2257,12 @@
       <c r="BB8" t="s">
         <v>31</v>
       </c>
+      <c r="BC8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2382,6 +2427,12 @@
       <c r="BB9" t="s">
         <v>31</v>
       </c>
+      <c r="BC9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2546,6 +2597,12 @@
       <c r="BB10" t="s">
         <v>31</v>
       </c>
+      <c r="BC10" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2710,6 +2767,12 @@
       <c r="BB11" t="s">
         <v>33</v>
       </c>
+      <c r="BC11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2874,6 +2937,12 @@
       <c r="BB12" t="s">
         <v>31</v>
       </c>
+      <c r="BC12" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3038,6 +3107,12 @@
       <c r="BB13" t="s">
         <v>31</v>
       </c>
+      <c r="BC13" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3202,6 +3277,12 @@
       <c r="BB14" t="s">
         <v>31</v>
       </c>
+      <c r="BC14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3366,6 +3447,12 @@
       <c r="BB15" t="s">
         <v>31</v>
       </c>
+      <c r="BC15" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3530,8 +3617,14 @@
       <c r="BB16" t="s">
         <v>31</v>
       </c>
+      <c r="BC16" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3694,8 +3787,14 @@
       <c r="BB17" t="s">
         <v>31</v>
       </c>
+      <c r="BC17" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3858,8 +3957,14 @@
       <c r="BB18" t="s">
         <v>31</v>
       </c>
+      <c r="BC18" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4022,8 +4127,14 @@
       <c r="BB19" t="s">
         <v>31</v>
       </c>
+      <c r="BC19" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4186,8 +4297,14 @@
       <c r="BB20" t="s">
         <v>31</v>
       </c>
+      <c r="BC20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4350,8 +4467,14 @@
       <c r="BB21" t="s">
         <v>31</v>
       </c>
+      <c r="BC21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4514,8 +4637,14 @@
       <c r="BB22" t="s">
         <v>33</v>
       </c>
+      <c r="BC22" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4678,8 +4807,14 @@
       <c r="BB23" t="s">
         <v>31</v>
       </c>
+      <c r="BC23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4842,8 +4977,14 @@
       <c r="BB24" t="s">
         <v>33</v>
       </c>
+      <c r="BC24" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5006,8 +5147,14 @@
       <c r="BB25" t="s">
         <v>31</v>
       </c>
+      <c r="BC25" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5170,8 +5317,14 @@
       <c r="BB26" t="s">
         <v>33</v>
       </c>
+      <c r="BC26" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5334,8 +5487,14 @@
       <c r="BB27" t="s">
         <v>31</v>
       </c>
+      <c r="BC27" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -5497,6 +5656,12 @@
       </c>
       <c r="BB28" t="s">
         <v>31</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD28" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Documents\GitHub\senai2024\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9852B6-C2CB-4AAF-9D6C-6AC32C8560D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DF16B1-1255-4E4D-A3A6-6FF15BBC9886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -191,10 +191,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,10 +528,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BD28" sqref="BD28"/>
+      <selection pane="bottomRight" activeCell="BG28" sqref="BG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,10 +603,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1413,6 +1413,15 @@
       <c r="BD3" t="s">
         <v>31</v>
       </c>
+      <c r="BE3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1583,6 +1592,15 @@
       <c r="BD4" t="s">
         <v>31</v>
       </c>
+      <c r="BE4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1753,6 +1771,15 @@
       <c r="BD5" t="s">
         <v>31</v>
       </c>
+      <c r="BE5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1923,6 +1950,15 @@
       <c r="BD6" t="s">
         <v>31</v>
       </c>
+      <c r="BE6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2093,6 +2129,15 @@
       <c r="BD7" t="s">
         <v>31</v>
       </c>
+      <c r="BE7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2263,6 +2308,15 @@
       <c r="BD8" t="s">
         <v>31</v>
       </c>
+      <c r="BE8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2433,6 +2487,15 @@
       <c r="BD9" t="s">
         <v>31</v>
       </c>
+      <c r="BE9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2603,6 +2666,15 @@
       <c r="BD10" t="s">
         <v>31</v>
       </c>
+      <c r="BE10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2773,6 +2845,15 @@
       <c r="BD11" t="s">
         <v>31</v>
       </c>
+      <c r="BE11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2943,6 +3024,15 @@
       <c r="BD12" t="s">
         <v>31</v>
       </c>
+      <c r="BE12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3113,6 +3203,15 @@
       <c r="BD13" t="s">
         <v>33</v>
       </c>
+      <c r="BE13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3283,6 +3382,15 @@
       <c r="BD14" t="s">
         <v>31</v>
       </c>
+      <c r="BE14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3453,6 +3561,15 @@
       <c r="BD15" t="s">
         <v>33</v>
       </c>
+      <c r="BE15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3623,8 +3740,17 @@
       <c r="BD16" t="s">
         <v>31</v>
       </c>
+      <c r="BE16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3793,8 +3919,17 @@
       <c r="BD17" t="s">
         <v>31</v>
       </c>
+      <c r="BE17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3963,8 +4098,17 @@
       <c r="BD18" t="s">
         <v>31</v>
       </c>
+      <c r="BE18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4133,8 +4277,17 @@
       <c r="BD19" t="s">
         <v>31</v>
       </c>
+      <c r="BE19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4303,8 +4456,17 @@
       <c r="BD20" t="s">
         <v>31</v>
       </c>
+      <c r="BE20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4473,8 +4635,17 @@
       <c r="BD21" t="s">
         <v>31</v>
       </c>
+      <c r="BE21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4643,8 +4814,17 @@
       <c r="BD22" t="s">
         <v>33</v>
       </c>
+      <c r="BE22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4813,8 +4993,17 @@
       <c r="BD23" t="s">
         <v>31</v>
       </c>
+      <c r="BE23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4983,8 +5172,17 @@
       <c r="BD24" t="s">
         <v>33</v>
       </c>
+      <c r="BE24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5153,8 +5351,17 @@
       <c r="BD25" t="s">
         <v>31</v>
       </c>
+      <c r="BE25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5323,8 +5530,17 @@
       <c r="BD26" t="s">
         <v>31</v>
       </c>
+      <c r="BE26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5493,8 +5709,17 @@
       <c r="BD27" t="s">
         <v>31</v>
       </c>
+      <c r="BE27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -5660,8 +5885,17 @@
       <c r="BC28" t="s">
         <v>31</v>
       </c>
-      <c r="BD28" s="4" t="s">
-        <v>33</v>
+      <c r="BD28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DF16B1-1255-4E4D-A3A6-6FF15BBC9886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB91DDF-6557-43ED-ADF0-262279450CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -531,7 +531,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BG28" sqref="BG28"/>
+      <selection pane="bottomRight" activeCell="BH23" sqref="BH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,6 +1422,9 @@
       <c r="BG3" t="s">
         <v>31</v>
       </c>
+      <c r="BH3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1601,6 +1604,9 @@
       <c r="BG4" t="s">
         <v>31</v>
       </c>
+      <c r="BH4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1780,6 +1786,9 @@
       <c r="BG5" t="s">
         <v>31</v>
       </c>
+      <c r="BH5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1959,6 +1968,9 @@
       <c r="BG6" t="s">
         <v>33</v>
       </c>
+      <c r="BH6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2138,6 +2150,9 @@
       <c r="BG7" t="s">
         <v>31</v>
       </c>
+      <c r="BH7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2317,6 +2332,9 @@
       <c r="BG8" t="s">
         <v>31</v>
       </c>
+      <c r="BH8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2496,6 +2514,9 @@
       <c r="BG9" t="s">
         <v>31</v>
       </c>
+      <c r="BH9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2675,6 +2696,9 @@
       <c r="BG10" t="s">
         <v>33</v>
       </c>
+      <c r="BH10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2854,6 +2878,9 @@
       <c r="BG11" t="s">
         <v>31</v>
       </c>
+      <c r="BH11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3033,6 +3060,9 @@
       <c r="BG12" t="s">
         <v>31</v>
       </c>
+      <c r="BH12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3212,6 +3242,9 @@
       <c r="BG13" t="s">
         <v>31</v>
       </c>
+      <c r="BH13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3391,6 +3424,9 @@
       <c r="BG14" t="s">
         <v>31</v>
       </c>
+      <c r="BH14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3570,6 +3606,9 @@
       <c r="BG15" t="s">
         <v>31</v>
       </c>
+      <c r="BH15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3749,8 +3788,11 @@
       <c r="BG16" t="s">
         <v>31</v>
       </c>
+      <c r="BH16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3928,8 +3970,11 @@
       <c r="BG17" t="s">
         <v>33</v>
       </c>
+      <c r="BH17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4107,8 +4152,11 @@
       <c r="BG18" t="s">
         <v>31</v>
       </c>
+      <c r="BH18" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4286,8 +4334,11 @@
       <c r="BG19" t="s">
         <v>31</v>
       </c>
+      <c r="BH19" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4465,8 +4516,11 @@
       <c r="BG20" t="s">
         <v>31</v>
       </c>
+      <c r="BH20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4644,8 +4698,11 @@
       <c r="BG21" t="s">
         <v>33</v>
       </c>
+      <c r="BH21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4823,8 +4880,11 @@
       <c r="BG22" t="s">
         <v>31</v>
       </c>
+      <c r="BH22" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5002,8 +5062,11 @@
       <c r="BG23" t="s">
         <v>31</v>
       </c>
+      <c r="BH23" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5181,8 +5244,11 @@
       <c r="BG24" t="s">
         <v>31</v>
       </c>
+      <c r="BH24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5360,8 +5426,11 @@
       <c r="BG25" t="s">
         <v>31</v>
       </c>
+      <c r="BH25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5539,8 +5608,11 @@
       <c r="BG26" t="s">
         <v>31</v>
       </c>
+      <c r="BH26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5718,8 +5790,11 @@
       <c r="BG27" t="s">
         <v>31</v>
       </c>
+      <c r="BH27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -5896,6 +5971,9 @@
       </c>
       <c r="BG28" t="s">
         <v>31</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DF16B1-1255-4E4D-A3A6-6FF15BBC9886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B24BE6F-1902-49A9-B3E4-9E0411C961D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="36">
   <si>
     <t>Alunos</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>FER</t>
+  </si>
+  <si>
+    <t>Feriado</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BG28" sqref="BG28"/>
+      <selection pane="bottomRight" activeCell="BK27" sqref="BK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,6 +1425,18 @@
       <c r="BG3" t="s">
         <v>31</v>
       </c>
+      <c r="BH3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1601,6 +1616,18 @@
       <c r="BG4" t="s">
         <v>31</v>
       </c>
+      <c r="BH4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1780,6 +1807,18 @@
       <c r="BG5" t="s">
         <v>31</v>
       </c>
+      <c r="BH5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1959,6 +1998,18 @@
       <c r="BG6" t="s">
         <v>33</v>
       </c>
+      <c r="BH6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2138,6 +2189,18 @@
       <c r="BG7" t="s">
         <v>31</v>
       </c>
+      <c r="BH7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2317,6 +2380,18 @@
       <c r="BG8" t="s">
         <v>31</v>
       </c>
+      <c r="BH8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2496,6 +2571,18 @@
       <c r="BG9" t="s">
         <v>31</v>
       </c>
+      <c r="BH9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2675,6 +2762,18 @@
       <c r="BG10" t="s">
         <v>33</v>
       </c>
+      <c r="BH10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2854,6 +2953,18 @@
       <c r="BG11" t="s">
         <v>31</v>
       </c>
+      <c r="BH11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3033,6 +3144,18 @@
       <c r="BG12" t="s">
         <v>31</v>
       </c>
+      <c r="BH12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3212,6 +3335,18 @@
       <c r="BG13" t="s">
         <v>31</v>
       </c>
+      <c r="BH13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3391,6 +3526,18 @@
       <c r="BG14" t="s">
         <v>31</v>
       </c>
+      <c r="BH14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3570,6 +3717,18 @@
       <c r="BG15" t="s">
         <v>31</v>
       </c>
+      <c r="BH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3749,8 +3908,20 @@
       <c r="BG16" t="s">
         <v>31</v>
       </c>
+      <c r="BH16" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3928,8 +4099,20 @@
       <c r="BG17" t="s">
         <v>33</v>
       </c>
+      <c r="BH17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4107,8 +4290,20 @@
       <c r="BG18" t="s">
         <v>31</v>
       </c>
+      <c r="BH18" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4286,8 +4481,20 @@
       <c r="BG19" t="s">
         <v>31</v>
       </c>
+      <c r="BH19" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4465,8 +4672,20 @@
       <c r="BG20" t="s">
         <v>31</v>
       </c>
+      <c r="BH20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4644,8 +4863,20 @@
       <c r="BG21" t="s">
         <v>33</v>
       </c>
+      <c r="BH21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4823,8 +5054,20 @@
       <c r="BG22" t="s">
         <v>31</v>
       </c>
+      <c r="BH22" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5002,8 +5245,20 @@
       <c r="BG23" t="s">
         <v>31</v>
       </c>
+      <c r="BH23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5181,8 +5436,20 @@
       <c r="BG24" t="s">
         <v>31</v>
       </c>
+      <c r="BH24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5360,8 +5627,20 @@
       <c r="BG25" t="s">
         <v>31</v>
       </c>
+      <c r="BH25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5539,8 +5818,20 @@
       <c r="BG26" t="s">
         <v>31</v>
       </c>
+      <c r="BH26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5718,8 +6009,20 @@
       <c r="BG27" t="s">
         <v>31</v>
       </c>
+      <c r="BH27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -5895,6 +6198,18 @@
         <v>31</v>
       </c>
       <c r="BG28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B24BE6F-1902-49A9-B3E4-9E0411C961D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8697D0-4CC6-4908-933E-4D9B899438A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="36">
   <si>
     <t>Alunos</t>
   </si>
@@ -534,7 +534,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BK27" sqref="BK27"/>
+      <selection pane="bottomRight" activeCell="BN22" sqref="BN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,6 +1437,9 @@
       <c r="BK3" t="s">
         <v>31</v>
       </c>
+      <c r="BL3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1628,6 +1631,9 @@
       <c r="BK4" t="s">
         <v>31</v>
       </c>
+      <c r="BL4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1819,6 +1825,9 @@
       <c r="BK5" t="s">
         <v>31</v>
       </c>
+      <c r="BL5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2010,6 +2019,9 @@
       <c r="BK6" t="s">
         <v>31</v>
       </c>
+      <c r="BL6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2201,6 +2213,9 @@
       <c r="BK7" t="s">
         <v>31</v>
       </c>
+      <c r="BL7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2392,6 +2407,9 @@
       <c r="BK8" t="s">
         <v>31</v>
       </c>
+      <c r="BL8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2583,6 +2601,9 @@
       <c r="BK9" t="s">
         <v>31</v>
       </c>
+      <c r="BL9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2774,6 +2795,9 @@
       <c r="BK10" t="s">
         <v>31</v>
       </c>
+      <c r="BL10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2965,6 +2989,9 @@
       <c r="BK11" t="s">
         <v>31</v>
       </c>
+      <c r="BL11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3156,6 +3183,9 @@
       <c r="BK12" t="s">
         <v>31</v>
       </c>
+      <c r="BL12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3347,6 +3377,9 @@
       <c r="BK13" t="s">
         <v>31</v>
       </c>
+      <c r="BL13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3538,6 +3571,9 @@
       <c r="BK14" t="s">
         <v>31</v>
       </c>
+      <c r="BL14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3729,6 +3765,9 @@
       <c r="BK15" t="s">
         <v>31</v>
       </c>
+      <c r="BL15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3920,8 +3959,11 @@
       <c r="BK16" t="s">
         <v>31</v>
       </c>
+      <c r="BL16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4111,8 +4153,11 @@
       <c r="BK17" t="s">
         <v>33</v>
       </c>
+      <c r="BL17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4302,8 +4347,11 @@
       <c r="BK18" t="s">
         <v>31</v>
       </c>
+      <c r="BL18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4493,8 +4541,11 @@
       <c r="BK19" t="s">
         <v>31</v>
       </c>
+      <c r="BL19" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4684,8 +4735,11 @@
       <c r="BK20" t="s">
         <v>31</v>
       </c>
+      <c r="BL20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4875,8 +4929,11 @@
       <c r="BK21" t="s">
         <v>33</v>
       </c>
+      <c r="BL21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5066,8 +5123,11 @@
       <c r="BK22" t="s">
         <v>31</v>
       </c>
+      <c r="BL22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5257,8 +5317,11 @@
       <c r="BK23" t="s">
         <v>31</v>
       </c>
+      <c r="BL23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5448,8 +5511,11 @@
       <c r="BK24" t="s">
         <v>33</v>
       </c>
+      <c r="BL24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5639,8 +5705,11 @@
       <c r="BK25" t="s">
         <v>31</v>
       </c>
+      <c r="BL25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5830,8 +5899,11 @@
       <c r="BK26" t="s">
         <v>31</v>
       </c>
+      <c r="BL26" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -6021,8 +6093,11 @@
       <c r="BK27" t="s">
         <v>31</v>
       </c>
+      <c r="BL27" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -6210,6 +6285,9 @@
         <v>31</v>
       </c>
       <c r="BK28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8697D0-4CC6-4908-933E-4D9B899438A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DDD157-479D-47E5-83CF-98B664E75626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="36">
   <si>
     <t>Alunos</t>
   </si>
@@ -531,10 +531,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AS9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BN22" sqref="BN22"/>
+      <selection pane="bottomRight" activeCell="BM29" sqref="BM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,6 +1440,9 @@
       <c r="BL3" t="s">
         <v>31</v>
       </c>
+      <c r="BM3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1634,6 +1637,9 @@
       <c r="BL4" t="s">
         <v>31</v>
       </c>
+      <c r="BM4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1828,6 +1834,9 @@
       <c r="BL5" t="s">
         <v>31</v>
       </c>
+      <c r="BM5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2022,6 +2031,9 @@
       <c r="BL6" t="s">
         <v>31</v>
       </c>
+      <c r="BM6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2216,6 +2228,9 @@
       <c r="BL7" t="s">
         <v>31</v>
       </c>
+      <c r="BM7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2410,6 +2425,9 @@
       <c r="BL8" t="s">
         <v>31</v>
       </c>
+      <c r="BM8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2602,6 +2620,9 @@
         <v>31</v>
       </c>
       <c r="BL9" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2796,6 +2817,9 @@
         <v>31</v>
       </c>
       <c r="BL10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2992,6 +3016,9 @@
       <c r="BL11" t="s">
         <v>31</v>
       </c>
+      <c r="BM11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3186,6 +3213,9 @@
       <c r="BL12" t="s">
         <v>31</v>
       </c>
+      <c r="BM12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3380,6 +3410,9 @@
       <c r="BL13" t="s">
         <v>31</v>
       </c>
+      <c r="BM13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3574,6 +3607,9 @@
       <c r="BL14" t="s">
         <v>31</v>
       </c>
+      <c r="BM14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3768,6 +3804,9 @@
       <c r="BL15" t="s">
         <v>31</v>
       </c>
+      <c r="BM15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3962,8 +4001,11 @@
       <c r="BL16" t="s">
         <v>33</v>
       </c>
+      <c r="BM16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4156,8 +4198,11 @@
       <c r="BL17" t="s">
         <v>33</v>
       </c>
+      <c r="BM17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4350,8 +4395,11 @@
       <c r="BL18" t="s">
         <v>31</v>
       </c>
+      <c r="BM18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4544,8 +4592,11 @@
       <c r="BL19" t="s">
         <v>33</v>
       </c>
+      <c r="BM19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4738,8 +4789,11 @@
       <c r="BL20" t="s">
         <v>31</v>
       </c>
+      <c r="BM20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4932,8 +4986,11 @@
       <c r="BL21" t="s">
         <v>31</v>
       </c>
+      <c r="BM21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5126,8 +5183,11 @@
       <c r="BL22" t="s">
         <v>31</v>
       </c>
+      <c r="BM22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5320,8 +5380,11 @@
       <c r="BL23" t="s">
         <v>31</v>
       </c>
+      <c r="BM23" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5514,8 +5577,11 @@
       <c r="BL24" t="s">
         <v>31</v>
       </c>
+      <c r="BM24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5708,8 +5774,11 @@
       <c r="BL25" t="s">
         <v>31</v>
       </c>
+      <c r="BM25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5902,8 +5971,11 @@
       <c r="BL26" t="s">
         <v>33</v>
       </c>
+      <c r="BM26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -6096,8 +6168,11 @@
       <c r="BL27" t="s">
         <v>33</v>
       </c>
+      <c r="BM27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -6289,6 +6364,9 @@
       </c>
       <c r="BL28" t="s">
         <v>31</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DDD157-479D-47E5-83CF-98B664E75626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,14 +526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AS9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BM29" sqref="BM29"/>
+      <selection pane="bottomRight" activeCell="BM18" sqref="BM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4190,16 +4189,16 @@
         <v>35</v>
       </c>
       <c r="BJ17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="BK17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="BL17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="BM17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.25">
@@ -6370,7 +6369,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B27">
+  <sortState ref="A3:B27">
     <sortCondition ref="B2:B27"/>
   </sortState>
   <mergeCells count="1">

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\senai2024\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094E7173-5D36-4C11-A6E6-66807AC1D1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="36">
   <si>
     <t>Alunos</t>
   </si>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,14 +527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AT3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BM18" sqref="BM18"/>
+      <selection pane="bottomRight" activeCell="BX23" sqref="BX23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,6 +1443,39 @@
       <c r="BM3" t="s">
         <v>33</v>
       </c>
+      <c r="BN3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1639,6 +1673,39 @@
       <c r="BM4" t="s">
         <v>31</v>
       </c>
+      <c r="BN4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1836,6 +1903,39 @@
       <c r="BM5" t="s">
         <v>31</v>
       </c>
+      <c r="BN5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2033,6 +2133,39 @@
       <c r="BM6" t="s">
         <v>31</v>
       </c>
+      <c r="BN6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2230,6 +2363,39 @@
       <c r="BM7" t="s">
         <v>33</v>
       </c>
+      <c r="BN7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2427,6 +2593,39 @@
       <c r="BM8" t="s">
         <v>31</v>
       </c>
+      <c r="BN8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2624,6 +2823,39 @@
       <c r="BM9" t="s">
         <v>31</v>
       </c>
+      <c r="BN9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2821,6 +3053,39 @@
       <c r="BM10" t="s">
         <v>33</v>
       </c>
+      <c r="BN10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3018,6 +3283,39 @@
       <c r="BM11" t="s">
         <v>31</v>
       </c>
+      <c r="BN11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3215,6 +3513,39 @@
       <c r="BM12" t="s">
         <v>33</v>
       </c>
+      <c r="BN12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3412,6 +3743,39 @@
       <c r="BM13" t="s">
         <v>33</v>
       </c>
+      <c r="BN13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3609,6 +3973,39 @@
       <c r="BM14" t="s">
         <v>33</v>
       </c>
+      <c r="BN14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3806,6 +4203,39 @@
       <c r="BM15" t="s">
         <v>31</v>
       </c>
+      <c r="BN15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4003,8 +4433,41 @@
       <c r="BM16" t="s">
         <v>31</v>
       </c>
+      <c r="BN16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4200,8 +4663,41 @@
       <c r="BM17" t="s">
         <v>31</v>
       </c>
+      <c r="BN17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4397,8 +4893,41 @@
       <c r="BM18" t="s">
         <v>31</v>
       </c>
+      <c r="BN18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4594,8 +5123,41 @@
       <c r="BM19" t="s">
         <v>31</v>
       </c>
+      <c r="BN19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4791,8 +5353,41 @@
       <c r="BM20" t="s">
         <v>31</v>
       </c>
+      <c r="BN20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4988,8 +5583,41 @@
       <c r="BM21" t="s">
         <v>33</v>
       </c>
+      <c r="BN21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5185,8 +5813,41 @@
       <c r="BM22" t="s">
         <v>31</v>
       </c>
+      <c r="BN22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5382,8 +6043,41 @@
       <c r="BM23" t="s">
         <v>33</v>
       </c>
+      <c r="BN23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5579,8 +6273,41 @@
       <c r="BM24" t="s">
         <v>31</v>
       </c>
+      <c r="BN24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5776,8 +6503,41 @@
       <c r="BM25" t="s">
         <v>31</v>
       </c>
+      <c r="BN25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5973,8 +6733,41 @@
       <c r="BM26" t="s">
         <v>31</v>
       </c>
+      <c r="BN26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -6170,8 +6963,41 @@
       <c r="BM27" t="s">
         <v>31</v>
       </c>
+      <c r="BN27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -6367,9 +7193,42 @@
       <c r="BM28" t="s">
         <v>33</v>
       </c>
+      <c r="BN28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B27">
     <sortCondition ref="B2:B27"/>
   </sortState>
   <mergeCells count="1">

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094E7173-5D36-4C11-A6E6-66807AC1D1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C9534-C04A-4AB3-9D0B-F43B1B63CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="36">
   <si>
     <t>Alunos</t>
   </si>
@@ -139,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +169,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,10 +194,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -198,9 +206,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -232,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,7 +283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -378,7 +389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -531,10 +542,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BX23" sqref="BX23"/>
+      <selection pane="bottomRight" activeCell="CD20" sqref="CD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +601,9 @@
     <col min="77" max="79" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="86" max="88" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1476,6 +1489,24 @@
       <c r="BX3" t="s">
         <v>31</v>
       </c>
+      <c r="BY3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1706,6 +1737,24 @@
       <c r="BX4" t="s">
         <v>31</v>
       </c>
+      <c r="BY4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1936,6 +1985,24 @@
       <c r="BX5" t="s">
         <v>31</v>
       </c>
+      <c r="BY5" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2166,6 +2233,24 @@
       <c r="BX6" t="s">
         <v>33</v>
       </c>
+      <c r="BY6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2396,6 +2481,24 @@
       <c r="BX7" t="s">
         <v>31</v>
       </c>
+      <c r="BY7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2626,6 +2729,24 @@
       <c r="BX8" t="s">
         <v>31</v>
       </c>
+      <c r="BY8" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2856,6 +2977,24 @@
       <c r="BX9" t="s">
         <v>31</v>
       </c>
+      <c r="BY9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3086,6 +3225,24 @@
       <c r="BX10" t="s">
         <v>31</v>
       </c>
+      <c r="BY10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3316,6 +3473,24 @@
       <c r="BX11" t="s">
         <v>31</v>
       </c>
+      <c r="BY11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3546,6 +3721,24 @@
       <c r="BX12" t="s">
         <v>31</v>
       </c>
+      <c r="BY12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3776,6 +3969,24 @@
       <c r="BX13" t="s">
         <v>31</v>
       </c>
+      <c r="BY13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4006,6 +4217,24 @@
       <c r="BX14" t="s">
         <v>31</v>
       </c>
+      <c r="BY14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4236,6 +4465,24 @@
       <c r="BX15" t="s">
         <v>31</v>
       </c>
+      <c r="BY15" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4466,8 +4713,26 @@
       <c r="BX16" t="s">
         <v>31</v>
       </c>
+      <c r="BY16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4696,8 +4961,27 @@
       <c r="BX17" t="s">
         <v>31</v>
       </c>
+      <c r="BY17" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH17" s="5"/>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4926,8 +5210,27 @@
       <c r="BX18" t="s">
         <v>31</v>
       </c>
+      <c r="BY18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH18" s="6"/>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5156,8 +5459,26 @@
       <c r="BX19" t="s">
         <v>31</v>
       </c>
+      <c r="BY19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -5386,8 +5707,26 @@
       <c r="BX20" t="s">
         <v>31</v>
       </c>
+      <c r="BY20" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -5616,8 +5955,26 @@
       <c r="BX21" t="s">
         <v>33</v>
       </c>
+      <c r="BY21" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5846,8 +6203,26 @@
       <c r="BX22" t="s">
         <v>31</v>
       </c>
+      <c r="BY22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6076,8 +6451,26 @@
       <c r="BX23" t="s">
         <v>31</v>
       </c>
+      <c r="BY23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6306,8 +6699,26 @@
       <c r="BX24" t="s">
         <v>31</v>
       </c>
+      <c r="BY24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6333,7 +6744,7 @@
         <v>31</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
@@ -6471,7 +6882,7 @@
         <v>31</v>
       </c>
       <c r="BC25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="BD25" t="s">
         <v>31</v>
@@ -6536,8 +6947,26 @@
       <c r="BX25" t="s">
         <v>31</v>
       </c>
+      <c r="BY25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -6766,8 +7195,26 @@
       <c r="BX26" t="s">
         <v>31</v>
       </c>
+      <c r="BY26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -6996,8 +7443,26 @@
       <c r="BX27" t="s">
         <v>33</v>
       </c>
+      <c r="BY27" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -7224,6 +7689,24 @@
         <v>31</v>
       </c>
       <c r="BX28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7235,7 +7718,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD16 A17:CD17 CG17:XFD17 A18:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C9534-C04A-4AB3-9D0B-F43B1B63CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B486068-76B4-4F3F-B91A-11941079DAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="36">
   <si>
     <t>Alunos</t>
   </si>
@@ -203,11 +203,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +545,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CD20" sqref="CD20"/>
+      <selection pane="bottomRight" activeCell="CE26" sqref="CE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,10 +619,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1507,6 +1507,9 @@
       <c r="CD3" t="s">
         <v>33</v>
       </c>
+      <c r="CE3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1755,6 +1758,9 @@
       <c r="CD4" t="s">
         <v>31</v>
       </c>
+      <c r="CE4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2003,6 +2009,9 @@
       <c r="CD5" t="s">
         <v>31</v>
       </c>
+      <c r="CE5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2251,6 +2260,9 @@
       <c r="CD6" t="s">
         <v>33</v>
       </c>
+      <c r="CE6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2499,6 +2511,9 @@
       <c r="CD7" t="s">
         <v>31</v>
       </c>
+      <c r="CE7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2747,6 +2762,9 @@
       <c r="CD8" t="s">
         <v>31</v>
       </c>
+      <c r="CE8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2995,6 +3013,9 @@
       <c r="CD9" t="s">
         <v>31</v>
       </c>
+      <c r="CE9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3243,6 +3264,9 @@
       <c r="CD10" t="s">
         <v>31</v>
       </c>
+      <c r="CE10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3491,6 +3515,9 @@
       <c r="CD11" t="s">
         <v>31</v>
       </c>
+      <c r="CE11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3739,6 +3766,9 @@
       <c r="CD12" t="s">
         <v>31</v>
       </c>
+      <c r="CE12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3987,6 +4017,9 @@
       <c r="CD13" t="s">
         <v>33</v>
       </c>
+      <c r="CE13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4235,6 +4268,9 @@
       <c r="CD14" t="s">
         <v>31</v>
       </c>
+      <c r="CE14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4483,6 +4519,9 @@
       <c r="CD15" t="s">
         <v>31</v>
       </c>
+      <c r="CE15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4731,6 +4770,9 @@
       <c r="CD16" t="s">
         <v>33</v>
       </c>
+      <c r="CE16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4979,7 +5021,13 @@
       <c r="CD17" t="s">
         <v>31</v>
       </c>
-      <c r="CH17" s="5"/>
+      <c r="CE17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH17" s="4"/>
     </row>
     <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5228,7 +5276,10 @@
       <c r="CD18" t="s">
         <v>31</v>
       </c>
-      <c r="CH18" s="6"/>
+      <c r="CE18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH18" s="5"/>
     </row>
     <row r="19" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -5477,6 +5528,9 @@
       <c r="CD19" t="s">
         <v>31</v>
       </c>
+      <c r="CE19" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -5725,6 +5779,9 @@
       <c r="CD20" t="s">
         <v>31</v>
       </c>
+      <c r="CE20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5973,6 +6030,12 @@
       <c r="CD21" t="s">
         <v>31</v>
       </c>
+      <c r="CE21" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -6221,6 +6284,9 @@
       <c r="CD22" t="s">
         <v>33</v>
       </c>
+      <c r="CE22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -6469,6 +6535,9 @@
       <c r="CD23" t="s">
         <v>31</v>
       </c>
+      <c r="CE23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6717,6 +6786,12 @@
       <c r="CD24" t="s">
         <v>31</v>
       </c>
+      <c r="CE24" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6965,6 +7040,9 @@
       <c r="CD25" t="s">
         <v>31</v>
       </c>
+      <c r="CE25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7213,6 +7291,9 @@
       <c r="CD26" t="s">
         <v>31</v>
       </c>
+      <c r="CE26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7461,6 +7542,9 @@
       <c r="CD27" t="s">
         <v>31</v>
       </c>
+      <c r="CE27" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7707,6 +7791,9 @@
         <v>33</v>
       </c>
       <c r="CD28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7718,7 +7805,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD16 A17:CD17 CG17:XFD17 A18:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B486068-76B4-4F3F-B91A-11941079DAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B6570A-7896-4745-8851-821513652617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="36">
   <si>
     <t>Alunos</t>
   </si>
@@ -243,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -389,7 +389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,7 +545,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CE26" sqref="CE26"/>
+      <selection pane="bottomRight" activeCell="CG28" sqref="CG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,6 +1510,9 @@
       <c r="CE3" t="s">
         <v>31</v>
       </c>
+      <c r="CG3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1761,6 +1764,9 @@
       <c r="CE4" t="s">
         <v>33</v>
       </c>
+      <c r="CG4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2012,6 +2018,9 @@
       <c r="CE5" t="s">
         <v>33</v>
       </c>
+      <c r="CG5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2263,6 +2272,9 @@
       <c r="CE6" t="s">
         <v>31</v>
       </c>
+      <c r="CG6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2514,6 +2526,9 @@
       <c r="CE7" t="s">
         <v>31</v>
       </c>
+      <c r="CG7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2765,6 +2780,9 @@
       <c r="CE8" t="s">
         <v>33</v>
       </c>
+      <c r="CG8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3016,6 +3034,9 @@
       <c r="CE9" t="s">
         <v>31</v>
       </c>
+      <c r="CG9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3267,6 +3288,9 @@
       <c r="CE10" t="s">
         <v>31</v>
       </c>
+      <c r="CG10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3518,6 +3542,9 @@
       <c r="CE11" t="s">
         <v>31</v>
       </c>
+      <c r="CG11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3769,6 +3796,9 @@
       <c r="CE12" t="s">
         <v>31</v>
       </c>
+      <c r="CG12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4020,6 +4050,9 @@
       <c r="CE13" t="s">
         <v>31</v>
       </c>
+      <c r="CG13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4271,6 +4304,9 @@
       <c r="CE14" t="s">
         <v>31</v>
       </c>
+      <c r="CG14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4522,6 +4558,9 @@
       <c r="CE15" t="s">
         <v>33</v>
       </c>
+      <c r="CG15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4773,6 +4812,9 @@
       <c r="CE16" t="s">
         <v>31</v>
       </c>
+      <c r="CG16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -5025,6 +5067,9 @@
         <v>31</v>
       </c>
       <c r="CF17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG17" t="s">
         <v>31</v>
       </c>
       <c r="CH17" s="4"/>
@@ -5279,6 +5324,9 @@
       <c r="CE18" t="s">
         <v>31</v>
       </c>
+      <c r="CG18" t="s">
+        <v>31</v>
+      </c>
       <c r="CH18" s="5"/>
     </row>
     <row r="19" spans="1:86" x14ac:dyDescent="0.25">
@@ -5531,6 +5579,9 @@
       <c r="CE19" t="s">
         <v>31</v>
       </c>
+      <c r="CG19" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -5782,6 +5833,9 @@
       <c r="CE20" t="s">
         <v>31</v>
       </c>
+      <c r="CG20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -6036,6 +6090,9 @@
       <c r="CF21" t="s">
         <v>31</v>
       </c>
+      <c r="CG21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -6287,6 +6344,9 @@
       <c r="CE22" t="s">
         <v>31</v>
       </c>
+      <c r="CG22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -6538,6 +6598,9 @@
       <c r="CE23" t="s">
         <v>31</v>
       </c>
+      <c r="CG23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6792,6 +6855,9 @@
       <c r="CF24" t="s">
         <v>31</v>
       </c>
+      <c r="CG24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7043,6 +7109,9 @@
       <c r="CE25" t="s">
         <v>31</v>
       </c>
+      <c r="CG25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7294,6 +7363,9 @@
       <c r="CE26" t="s">
         <v>33</v>
       </c>
+      <c r="CG26" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7545,6 +7617,9 @@
       <c r="CE27" t="s">
         <v>31</v>
       </c>
+      <c r="CG27" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7794,6 +7869,9 @@
         <v>31</v>
       </c>
       <c r="CE28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B6570A-7896-4745-8851-821513652617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86490790-7095-4DCE-962F-872965019679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="36">
   <si>
     <t>Alunos</t>
   </si>
@@ -542,10 +542,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CG28" sqref="CG28"/>
+      <selection pane="bottomRight" activeCell="CH10" sqref="CH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,8 +1510,14 @@
       <c r="CE3" t="s">
         <v>31</v>
       </c>
+      <c r="CF3" t="s">
+        <v>31</v>
+      </c>
       <c r="CG3" t="s">
         <v>31</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
@@ -1764,7 +1770,13 @@
       <c r="CE4" t="s">
         <v>33</v>
       </c>
+      <c r="CF4" t="s">
+        <v>31</v>
+      </c>
       <c r="CG4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2018,7 +2030,13 @@
       <c r="CE5" t="s">
         <v>33</v>
       </c>
+      <c r="CF5" t="s">
+        <v>31</v>
+      </c>
       <c r="CG5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2272,8 +2290,14 @@
       <c r="CE6" t="s">
         <v>31</v>
       </c>
+      <c r="CF6" t="s">
+        <v>31</v>
+      </c>
       <c r="CG6" t="s">
         <v>31</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
@@ -2526,7 +2550,13 @@
       <c r="CE7" t="s">
         <v>31</v>
       </c>
+      <c r="CF7" t="s">
+        <v>31</v>
+      </c>
       <c r="CG7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2780,7 +2810,13 @@
       <c r="CE8" t="s">
         <v>33</v>
       </c>
+      <c r="CF8" t="s">
+        <v>31</v>
+      </c>
       <c r="CG8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3034,8 +3070,14 @@
       <c r="CE9" t="s">
         <v>31</v>
       </c>
+      <c r="CF9" t="s">
+        <v>31</v>
+      </c>
       <c r="CG9" t="s">
         <v>31</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
@@ -3288,7 +3330,13 @@
       <c r="CE10" t="s">
         <v>31</v>
       </c>
+      <c r="CF10" t="s">
+        <v>31</v>
+      </c>
       <c r="CG10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3542,7 +3590,13 @@
       <c r="CE11" t="s">
         <v>31</v>
       </c>
+      <c r="CF11" t="s">
+        <v>31</v>
+      </c>
       <c r="CG11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3796,7 +3850,13 @@
       <c r="CE12" t="s">
         <v>31</v>
       </c>
+      <c r="CF12" t="s">
+        <v>31</v>
+      </c>
       <c r="CG12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4050,7 +4110,13 @@
       <c r="CE13" t="s">
         <v>31</v>
       </c>
+      <c r="CF13" t="s">
+        <v>31</v>
+      </c>
       <c r="CG13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4304,7 +4370,13 @@
       <c r="CE14" t="s">
         <v>31</v>
       </c>
+      <c r="CF14" t="s">
+        <v>31</v>
+      </c>
       <c r="CG14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4558,8 +4630,14 @@
       <c r="CE15" t="s">
         <v>33</v>
       </c>
+      <c r="CF15" t="s">
+        <v>31</v>
+      </c>
       <c r="CG15" t="s">
         <v>33</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
@@ -4812,8 +4890,14 @@
       <c r="CE16" t="s">
         <v>31</v>
       </c>
+      <c r="CF16" t="s">
+        <v>31</v>
+      </c>
       <c r="CG16" t="s">
         <v>33</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:86" x14ac:dyDescent="0.25">
@@ -5072,7 +5156,9 @@
       <c r="CG17" t="s">
         <v>31</v>
       </c>
-      <c r="CH17" s="4"/>
+      <c r="CH17" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5324,10 +5410,15 @@
       <c r="CE18" t="s">
         <v>31</v>
       </c>
+      <c r="CF18" t="s">
+        <v>31</v>
+      </c>
       <c r="CG18" t="s">
         <v>31</v>
       </c>
-      <c r="CH18" s="5"/>
+      <c r="CH18" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -5579,7 +5670,13 @@
       <c r="CE19" t="s">
         <v>31</v>
       </c>
+      <c r="CF19" t="s">
+        <v>31</v>
+      </c>
       <c r="CG19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5833,7 +5930,13 @@
       <c r="CE20" t="s">
         <v>31</v>
       </c>
+      <c r="CF20" t="s">
+        <v>31</v>
+      </c>
       <c r="CG20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6093,6 +6196,9 @@
       <c r="CG21" t="s">
         <v>31</v>
       </c>
+      <c r="CH21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -6344,8 +6450,14 @@
       <c r="CE22" t="s">
         <v>31</v>
       </c>
+      <c r="CF22" t="s">
+        <v>31</v>
+      </c>
       <c r="CG22" t="s">
         <v>31</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:86" x14ac:dyDescent="0.25">
@@ -6598,7 +6710,13 @@
       <c r="CE23" t="s">
         <v>31</v>
       </c>
+      <c r="CF23" t="s">
+        <v>31</v>
+      </c>
       <c r="CG23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH23" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6858,6 +6976,9 @@
       <c r="CG24" t="s">
         <v>31</v>
       </c>
+      <c r="CH24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7109,7 +7230,13 @@
       <c r="CE25" t="s">
         <v>31</v>
       </c>
+      <c r="CF25" t="s">
+        <v>31</v>
+      </c>
       <c r="CG25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH25" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7363,7 +7490,13 @@
       <c r="CE26" t="s">
         <v>33</v>
       </c>
+      <c r="CF26" t="s">
+        <v>31</v>
+      </c>
       <c r="CG26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7617,8 +7750,14 @@
       <c r="CE27" t="s">
         <v>31</v>
       </c>
+      <c r="CF27" t="s">
+        <v>31</v>
+      </c>
       <c r="CG27" t="s">
         <v>31</v>
+      </c>
+      <c r="CH27" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:86" x14ac:dyDescent="0.25">
@@ -7871,7 +8010,13 @@
       <c r="CE28" t="s">
         <v>31</v>
       </c>
+      <c r="CF28" t="s">
+        <v>31</v>
+      </c>
       <c r="CG28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86490790-7095-4DCE-962F-872965019679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B10827-AAA8-4A81-810A-9C925C6156A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="37">
   <si>
     <t>Alunos</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Feriado</t>
+  </si>
+  <si>
+    <t>FERIADO</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CH10" sqref="CH10"/>
+      <selection pane="bottomRight" activeCell="CK28" sqref="CK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1209,7 @@
         <v>29</v>
       </c>
       <c r="CI2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="CJ2" t="s">
         <v>29</v>
@@ -1519,6 +1522,12 @@
       <c r="CH3" t="s">
         <v>33</v>
       </c>
+      <c r="CJ3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1779,6 +1788,12 @@
       <c r="CH4" t="s">
         <v>31</v>
       </c>
+      <c r="CJ4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2039,6 +2054,12 @@
       <c r="CH5" t="s">
         <v>31</v>
       </c>
+      <c r="CJ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2299,6 +2320,12 @@
       <c r="CH6" t="s">
         <v>33</v>
       </c>
+      <c r="CJ6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2559,6 +2586,12 @@
       <c r="CH7" t="s">
         <v>31</v>
       </c>
+      <c r="CJ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2819,6 +2852,12 @@
       <c r="CH8" t="s">
         <v>31</v>
       </c>
+      <c r="CJ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3079,6 +3118,12 @@
       <c r="CH9" t="s">
         <v>33</v>
       </c>
+      <c r="CJ9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3339,6 +3384,12 @@
       <c r="CH10" t="s">
         <v>31</v>
       </c>
+      <c r="CJ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3599,6 +3650,12 @@
       <c r="CH11" t="s">
         <v>31</v>
       </c>
+      <c r="CJ11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3859,6 +3916,12 @@
       <c r="CH12" t="s">
         <v>31</v>
       </c>
+      <c r="CJ12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4119,6 +4182,12 @@
       <c r="CH13" t="s">
         <v>31</v>
       </c>
+      <c r="CJ13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4379,6 +4448,12 @@
       <c r="CH14" t="s">
         <v>31</v>
       </c>
+      <c r="CJ14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4639,6 +4714,12 @@
       <c r="CH15" t="s">
         <v>31</v>
       </c>
+      <c r="CJ15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4899,8 +4980,14 @@
       <c r="CH16" t="s">
         <v>31</v>
       </c>
+      <c r="CJ16" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5159,8 +5246,14 @@
       <c r="CH17" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="CJ17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -5419,8 +5512,14 @@
       <c r="CH18" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="CJ18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5679,8 +5778,14 @@
       <c r="CH19" t="s">
         <v>31</v>
       </c>
+      <c r="CJ19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -5939,8 +6044,14 @@
       <c r="CH20" t="s">
         <v>31</v>
       </c>
+      <c r="CJ20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -6199,8 +6310,14 @@
       <c r="CH21" t="s">
         <v>33</v>
       </c>
+      <c r="CJ21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6459,8 +6576,14 @@
       <c r="CH22" t="s">
         <v>33</v>
       </c>
+      <c r="CJ22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6719,8 +6842,14 @@
       <c r="CH23" t="s">
         <v>31</v>
       </c>
+      <c r="CJ23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6979,8 +7108,14 @@
       <c r="CH24" t="s">
         <v>31</v>
       </c>
+      <c r="CJ24" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7239,8 +7374,14 @@
       <c r="CH25" t="s">
         <v>31</v>
       </c>
+      <c r="CJ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -7499,8 +7640,14 @@
       <c r="CH26" t="s">
         <v>31</v>
       </c>
+      <c r="CJ26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -7759,8 +7906,14 @@
       <c r="CH27" t="s">
         <v>33</v>
       </c>
+      <c r="CJ27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK27" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -8017,6 +8170,12 @@
         <v>31</v>
       </c>
       <c r="CH28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B10827-AAA8-4A81-810A-9C925C6156A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C653E1E8-A167-4969-BC5E-97B26D947BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="38">
   <si>
     <t>Alunos</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>FERIADO</t>
+  </si>
+  <si>
+    <t>2P</t>
   </si>
 </sst>
 </file>
@@ -545,10 +548,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CK28" sqref="CK28"/>
+      <selection pane="bottomRight" activeCell="CL7" sqref="CL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,6 +1531,9 @@
       <c r="CK3" t="s">
         <v>31</v>
       </c>
+      <c r="CL3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1794,6 +1800,9 @@
       <c r="CK4" t="s">
         <v>31</v>
       </c>
+      <c r="CL4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2060,6 +2069,9 @@
       <c r="CK5" t="s">
         <v>31</v>
       </c>
+      <c r="CL5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2326,6 +2338,9 @@
       <c r="CK6" t="s">
         <v>31</v>
       </c>
+      <c r="CL6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2592,6 +2607,9 @@
       <c r="CK7" t="s">
         <v>33</v>
       </c>
+      <c r="CL7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2858,6 +2876,9 @@
       <c r="CK8" t="s">
         <v>31</v>
       </c>
+      <c r="CL8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3124,6 +3145,9 @@
       <c r="CK9" t="s">
         <v>33</v>
       </c>
+      <c r="CL9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3390,6 +3414,9 @@
       <c r="CK10" t="s">
         <v>31</v>
       </c>
+      <c r="CL10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3656,6 +3683,9 @@
       <c r="CK11" t="s">
         <v>31</v>
       </c>
+      <c r="CL11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3922,6 +3952,9 @@
       <c r="CK12" t="s">
         <v>31</v>
       </c>
+      <c r="CL12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4188,6 +4221,9 @@
       <c r="CK13" t="s">
         <v>31</v>
       </c>
+      <c r="CL13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4454,6 +4490,9 @@
       <c r="CK14" t="s">
         <v>31</v>
       </c>
+      <c r="CL14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4720,6 +4759,9 @@
       <c r="CK15" t="s">
         <v>31</v>
       </c>
+      <c r="CL15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4986,8 +5028,11 @@
       <c r="CK16" t="s">
         <v>31</v>
       </c>
+      <c r="CL16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5252,8 +5297,11 @@
       <c r="CK17" t="s">
         <v>33</v>
       </c>
+      <c r="CL17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -5518,8 +5566,11 @@
       <c r="CK18" t="s">
         <v>33</v>
       </c>
+      <c r="CL18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5784,8 +5835,11 @@
       <c r="CK19" t="s">
         <v>33</v>
       </c>
+      <c r="CL19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6050,8 +6104,11 @@
       <c r="CK20" t="s">
         <v>33</v>
       </c>
+      <c r="CL20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -6316,8 +6373,11 @@
       <c r="CK21" t="s">
         <v>33</v>
       </c>
+      <c r="CL21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6582,8 +6642,11 @@
       <c r="CK22" t="s">
         <v>31</v>
       </c>
+      <c r="CL22" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6848,8 +6911,11 @@
       <c r="CK23" t="s">
         <v>31</v>
       </c>
+      <c r="CL23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7114,8 +7180,11 @@
       <c r="CK24" t="s">
         <v>33</v>
       </c>
+      <c r="CL24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7380,8 +7449,11 @@
       <c r="CK25" t="s">
         <v>31</v>
       </c>
+      <c r="CL25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -7646,8 +7718,11 @@
       <c r="CK26" t="s">
         <v>31</v>
       </c>
+      <c r="CL26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -7912,8 +7987,11 @@
       <c r="CK27" t="s">
         <v>33</v>
       </c>
+      <c r="CL27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -8176,6 +8254,9 @@
         <v>31</v>
       </c>
       <c r="CK28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C653E1E8-A167-4969-BC5E-97B26D947BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00C621E-7A6A-4F8F-A52A-1823F9BB3D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="38">
   <si>
     <t>Alunos</t>
   </si>
@@ -548,10 +548,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CL7" sqref="CL7"/>
+      <selection pane="bottomRight" activeCell="CN4" sqref="CN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,6 +1534,12 @@
       <c r="CL3" t="s">
         <v>31</v>
       </c>
+      <c r="CM3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1803,6 +1809,12 @@
       <c r="CL4" t="s">
         <v>33</v>
       </c>
+      <c r="CM4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2072,6 +2084,12 @@
       <c r="CL5" t="s">
         <v>31</v>
       </c>
+      <c r="CM5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2341,6 +2359,12 @@
       <c r="CL6" t="s">
         <v>37</v>
       </c>
+      <c r="CM6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2610,6 +2634,12 @@
       <c r="CL7" t="s">
         <v>31</v>
       </c>
+      <c r="CM7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2879,6 +2909,12 @@
       <c r="CL8" t="s">
         <v>31</v>
       </c>
+      <c r="CM8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3148,6 +3184,12 @@
       <c r="CL9" t="s">
         <v>31</v>
       </c>
+      <c r="CM9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3417,6 +3459,12 @@
       <c r="CL10" t="s">
         <v>31</v>
       </c>
+      <c r="CM10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3686,6 +3734,12 @@
       <c r="CL11" t="s">
         <v>33</v>
       </c>
+      <c r="CM11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3955,6 +4009,12 @@
       <c r="CL12" t="s">
         <v>31</v>
       </c>
+      <c r="CM12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4224,6 +4284,12 @@
       <c r="CL13" t="s">
         <v>31</v>
       </c>
+      <c r="CM13" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4493,6 +4559,12 @@
       <c r="CL14" t="s">
         <v>31</v>
       </c>
+      <c r="CM14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4762,6 +4834,12 @@
       <c r="CL15" t="s">
         <v>31</v>
       </c>
+      <c r="CM15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5031,8 +5109,14 @@
       <c r="CL16" t="s">
         <v>31</v>
       </c>
+      <c r="CM16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5300,8 +5384,14 @@
       <c r="CL17" t="s">
         <v>31</v>
       </c>
+      <c r="CM17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -5569,8 +5659,14 @@
       <c r="CL18" t="s">
         <v>31</v>
       </c>
+      <c r="CM18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5838,8 +5934,14 @@
       <c r="CL19" t="s">
         <v>31</v>
       </c>
+      <c r="CM19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6107,8 +6209,14 @@
       <c r="CL20" t="s">
         <v>31</v>
       </c>
+      <c r="CM20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -6376,8 +6484,14 @@
       <c r="CL21" t="s">
         <v>33</v>
       </c>
+      <c r="CM21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6645,8 +6759,14 @@
       <c r="CL22" t="s">
         <v>33</v>
       </c>
+      <c r="CM22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6914,8 +7034,14 @@
       <c r="CL23" t="s">
         <v>31</v>
       </c>
+      <c r="CM23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7183,8 +7309,14 @@
       <c r="CL24" t="s">
         <v>33</v>
       </c>
+      <c r="CM24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7452,8 +7584,14 @@
       <c r="CL25" t="s">
         <v>31</v>
       </c>
+      <c r="CM25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -7721,8 +7859,14 @@
       <c r="CL26" t="s">
         <v>31</v>
       </c>
+      <c r="CM26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -7990,8 +8134,14 @@
       <c r="CL27" t="s">
         <v>31</v>
       </c>
+      <c r="CM27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -8257,6 +8407,12 @@
         <v>31</v>
       </c>
       <c r="CL28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00C621E-7A6A-4F8F-A52A-1823F9BB3D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937CC156-9AA5-4F9C-BC1E-61AD223747E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="38">
   <si>
     <t>Alunos</t>
   </si>
@@ -551,7 +551,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CN4" sqref="CN4"/>
+      <selection pane="bottomRight" activeCell="CO28" sqref="CO28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,6 +1540,9 @@
       <c r="CN3" t="s">
         <v>33</v>
       </c>
+      <c r="CO3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1815,6 +1818,9 @@
       <c r="CN4" t="s">
         <v>31</v>
       </c>
+      <c r="CO4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2090,6 +2096,9 @@
       <c r="CN5" t="s">
         <v>31</v>
       </c>
+      <c r="CO5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2365,6 +2374,9 @@
       <c r="CN6" t="s">
         <v>33</v>
       </c>
+      <c r="CO6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2640,6 +2652,9 @@
       <c r="CN7" t="s">
         <v>31</v>
       </c>
+      <c r="CO7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2915,6 +2930,9 @@
       <c r="CN8" t="s">
         <v>31</v>
       </c>
+      <c r="CO8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3190,6 +3208,9 @@
       <c r="CN9" t="s">
         <v>31</v>
       </c>
+      <c r="CO9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3465,6 +3486,9 @@
       <c r="CN10" t="s">
         <v>31</v>
       </c>
+      <c r="CO10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3740,6 +3764,9 @@
       <c r="CN11" t="s">
         <v>31</v>
       </c>
+      <c r="CO11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4015,6 +4042,9 @@
       <c r="CN12" t="s">
         <v>31</v>
       </c>
+      <c r="CO12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4290,6 +4320,9 @@
       <c r="CN13" t="s">
         <v>33</v>
       </c>
+      <c r="CO13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4565,6 +4598,9 @@
       <c r="CN14" t="s">
         <v>31</v>
       </c>
+      <c r="CO14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4840,6 +4876,9 @@
       <c r="CN15" t="s">
         <v>31</v>
       </c>
+      <c r="CO15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5115,8 +5154,11 @@
       <c r="CN16" t="s">
         <v>31</v>
       </c>
+      <c r="CO16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5390,8 +5432,11 @@
       <c r="CN17" t="s">
         <v>31</v>
       </c>
+      <c r="CO17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -5665,8 +5710,11 @@
       <c r="CN18" t="s">
         <v>33</v>
       </c>
+      <c r="CO18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5940,8 +5988,11 @@
       <c r="CN19" t="s">
         <v>31</v>
       </c>
+      <c r="CO19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6215,8 +6266,11 @@
       <c r="CN20" t="s">
         <v>31</v>
       </c>
+      <c r="CO20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -6490,8 +6544,11 @@
       <c r="CN21" t="s">
         <v>33</v>
       </c>
+      <c r="CO21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6765,8 +6822,11 @@
       <c r="CN22" t="s">
         <v>31</v>
       </c>
+      <c r="CO22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7040,8 +7100,11 @@
       <c r="CN23" t="s">
         <v>31</v>
       </c>
+      <c r="CO23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7315,8 +7378,11 @@
       <c r="CN24" t="s">
         <v>31</v>
       </c>
+      <c r="CO24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7590,8 +7656,11 @@
       <c r="CN25" t="s">
         <v>31</v>
       </c>
+      <c r="CO25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -7865,8 +7934,11 @@
       <c r="CN26" t="s">
         <v>31</v>
       </c>
+      <c r="CO26" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -8140,8 +8212,11 @@
       <c r="CN27" t="s">
         <v>31</v>
       </c>
+      <c r="CO27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -8413,6 +8488,9 @@
         <v>31</v>
       </c>
       <c r="CN28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937CC156-9AA5-4F9C-BC1E-61AD223747E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABD080A-28C1-423E-A888-052F697BC29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="38">
   <si>
     <t>Alunos</t>
   </si>
@@ -204,13 +204,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,10 +551,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CO28" sqref="CO28"/>
+      <selection pane="bottomRight" activeCell="CV28" sqref="CV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,10 +628,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1543,6 +1546,18 @@
       <c r="CO3" t="s">
         <v>33</v>
       </c>
+      <c r="CR3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1821,6 +1836,18 @@
       <c r="CO4" t="s">
         <v>31</v>
       </c>
+      <c r="CR4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2099,6 +2126,18 @@
       <c r="CO5" t="s">
         <v>31</v>
       </c>
+      <c r="CR5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2377,6 +2416,18 @@
       <c r="CO6" t="s">
         <v>33</v>
       </c>
+      <c r="CR6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2655,6 +2706,18 @@
       <c r="CO7" t="s">
         <v>31</v>
       </c>
+      <c r="CR7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2933,6 +2996,18 @@
       <c r="CO8" t="s">
         <v>31</v>
       </c>
+      <c r="CR8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3211,6 +3286,18 @@
       <c r="CO9" t="s">
         <v>31</v>
       </c>
+      <c r="CR9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3489,6 +3576,18 @@
       <c r="CO10" t="s">
         <v>31</v>
       </c>
+      <c r="CR10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3767,6 +3866,18 @@
       <c r="CO11" t="s">
         <v>31</v>
       </c>
+      <c r="CR11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4045,6 +4156,18 @@
       <c r="CO12" t="s">
         <v>31</v>
       </c>
+      <c r="CR12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4323,6 +4446,18 @@
       <c r="CO13" t="s">
         <v>31</v>
       </c>
+      <c r="CR13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4601,6 +4736,18 @@
       <c r="CO14" t="s">
         <v>31</v>
       </c>
+      <c r="CR14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4879,6 +5026,18 @@
       <c r="CO15" t="s">
         <v>31</v>
       </c>
+      <c r="CR15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5157,8 +5316,20 @@
       <c r="CO16" t="s">
         <v>31</v>
       </c>
+      <c r="CR16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5435,8 +5606,20 @@
       <c r="CO17" t="s">
         <v>31</v>
       </c>
+      <c r="CR17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -5713,8 +5896,20 @@
       <c r="CO18" t="s">
         <v>31</v>
       </c>
+      <c r="CR18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5991,8 +6186,20 @@
       <c r="CO19" t="s">
         <v>31</v>
       </c>
+      <c r="CR19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU19" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6269,8 +6476,20 @@
       <c r="CO20" t="s">
         <v>31</v>
       </c>
+      <c r="CR20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -6547,8 +6766,20 @@
       <c r="CO21" t="s">
         <v>31</v>
       </c>
+      <c r="CR21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT21" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6825,8 +7056,20 @@
       <c r="CO22" t="s">
         <v>31</v>
       </c>
+      <c r="CR22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7103,8 +7346,20 @@
       <c r="CO23" t="s">
         <v>31</v>
       </c>
+      <c r="CR23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7381,8 +7636,20 @@
       <c r="CO24" t="s">
         <v>31</v>
       </c>
+      <c r="CR24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS24" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7659,8 +7926,20 @@
       <c r="CO25" t="s">
         <v>31</v>
       </c>
+      <c r="CR25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -7937,8 +8216,20 @@
       <c r="CO26" t="s">
         <v>33</v>
       </c>
+      <c r="CR26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS26" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -8215,8 +8506,20 @@
       <c r="CO27" t="s">
         <v>31</v>
       </c>
+      <c r="CR27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT27" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -8491,6 +8794,18 @@
         <v>31</v>
       </c>
       <c r="CO28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CR28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABD080A-28C1-423E-A888-052F697BC29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF04AB3-0FEF-40BA-A647-998326E10754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="38">
   <si>
     <t>Alunos</t>
   </si>
@@ -551,10 +551,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CV28" sqref="CV28"/>
+      <selection pane="bottomRight" activeCell="CP28" sqref="CP28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,6 +1546,12 @@
       <c r="CO3" t="s">
         <v>33</v>
       </c>
+      <c r="CP3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>31</v>
+      </c>
       <c r="CR3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1557,6 +1563,12 @@
       </c>
       <c r="CU3" t="s">
         <v>33</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
@@ -1836,6 +1848,12 @@
       <c r="CO4" t="s">
         <v>31</v>
       </c>
+      <c r="CP4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>31</v>
+      </c>
       <c r="CR4" s="6" t="s">
         <v>31</v>
       </c>
@@ -1847,6 +1865,12 @@
       </c>
       <c r="CU4" t="s">
         <v>31</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
@@ -2126,6 +2150,12 @@
       <c r="CO5" t="s">
         <v>31</v>
       </c>
+      <c r="CP5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>31</v>
+      </c>
       <c r="CR5" s="6" t="s">
         <v>31</v>
       </c>
@@ -2136,6 +2166,12 @@
         <v>31</v>
       </c>
       <c r="CU5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2416,6 +2452,12 @@
       <c r="CO6" t="s">
         <v>33</v>
       </c>
+      <c r="CP6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>31</v>
+      </c>
       <c r="CR6" s="6" t="s">
         <v>33</v>
       </c>
@@ -2427,6 +2469,12 @@
       </c>
       <c r="CU6" t="s">
         <v>33</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
@@ -2706,8 +2754,14 @@
       <c r="CO7" t="s">
         <v>31</v>
       </c>
+      <c r="CP7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>31</v>
+      </c>
       <c r="CR7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CS7" t="s">
         <v>31</v>
@@ -2716,6 +2770,12 @@
         <v>31</v>
       </c>
       <c r="CU7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2996,6 +3056,12 @@
       <c r="CO8" t="s">
         <v>31</v>
       </c>
+      <c r="CP8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>31</v>
+      </c>
       <c r="CR8" s="6" t="s">
         <v>31</v>
       </c>
@@ -3006,6 +3072,12 @@
         <v>31</v>
       </c>
       <c r="CU8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3286,6 +3358,12 @@
       <c r="CO9" t="s">
         <v>31</v>
       </c>
+      <c r="CP9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>31</v>
+      </c>
       <c r="CR9" s="6" t="s">
         <v>31</v>
       </c>
@@ -3296,6 +3374,12 @@
         <v>33</v>
       </c>
       <c r="CU9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3576,6 +3660,12 @@
       <c r="CO10" t="s">
         <v>31</v>
       </c>
+      <c r="CP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>31</v>
+      </c>
       <c r="CR10" s="6" t="s">
         <v>31</v>
       </c>
@@ -3587,6 +3677,12 @@
       </c>
       <c r="CU10" t="s">
         <v>33</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
@@ -3866,6 +3962,12 @@
       <c r="CO11" t="s">
         <v>31</v>
       </c>
+      <c r="CP11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>31</v>
+      </c>
       <c r="CR11" s="6" t="s">
         <v>31</v>
       </c>
@@ -3877,6 +3979,12 @@
       </c>
       <c r="CU11" t="s">
         <v>33</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
@@ -4156,6 +4264,12 @@
       <c r="CO12" t="s">
         <v>31</v>
       </c>
+      <c r="CP12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>31</v>
+      </c>
       <c r="CR12" s="6" t="s">
         <v>31</v>
       </c>
@@ -4166,6 +4280,12 @@
         <v>33</v>
       </c>
       <c r="CU12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4446,6 +4566,12 @@
       <c r="CO13" t="s">
         <v>31</v>
       </c>
+      <c r="CP13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>31</v>
+      </c>
       <c r="CR13" s="6" t="s">
         <v>33</v>
       </c>
@@ -4457,6 +4583,12 @@
       </c>
       <c r="CU13" t="s">
         <v>31</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
@@ -4736,6 +4868,12 @@
       <c r="CO14" t="s">
         <v>31</v>
       </c>
+      <c r="CP14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>31</v>
+      </c>
       <c r="CR14" s="6" t="s">
         <v>33</v>
       </c>
@@ -4746,6 +4884,12 @@
         <v>31</v>
       </c>
       <c r="CU14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5026,6 +5170,12 @@
       <c r="CO15" t="s">
         <v>31</v>
       </c>
+      <c r="CP15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>31</v>
+      </c>
       <c r="CR15" s="6" t="s">
         <v>31</v>
       </c>
@@ -5037,6 +5187,12 @@
       </c>
       <c r="CU15" t="s">
         <v>33</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
@@ -5316,20 +5472,32 @@
       <c r="CO16" t="s">
         <v>31</v>
       </c>
+      <c r="CP16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>31</v>
+      </c>
       <c r="CR16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CS16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CT16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CU16" t="s">
         <v>31</v>
       </c>
+      <c r="CV16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5606,6 +5774,12 @@
       <c r="CO17" t="s">
         <v>31</v>
       </c>
+      <c r="CP17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>31</v>
+      </c>
       <c r="CR17" s="6" t="s">
         <v>31</v>
       </c>
@@ -5618,8 +5792,14 @@
       <c r="CU17" t="s">
         <v>31</v>
       </c>
+      <c r="CV17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -5896,6 +6076,12 @@
       <c r="CO18" t="s">
         <v>31</v>
       </c>
+      <c r="CP18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>31</v>
+      </c>
       <c r="CR18" s="6" t="s">
         <v>31</v>
       </c>
@@ -5908,8 +6094,14 @@
       <c r="CU18" t="s">
         <v>31</v>
       </c>
+      <c r="CV18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6186,6 +6378,12 @@
       <c r="CO19" t="s">
         <v>31</v>
       </c>
+      <c r="CP19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>31</v>
+      </c>
       <c r="CR19" s="6" t="s">
         <v>33</v>
       </c>
@@ -6198,8 +6396,14 @@
       <c r="CU19" t="s">
         <v>33</v>
       </c>
+      <c r="CV19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6476,6 +6680,12 @@
       <c r="CO20" t="s">
         <v>31</v>
       </c>
+      <c r="CP20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ20" t="s">
+        <v>31</v>
+      </c>
       <c r="CR20" s="6" t="s">
         <v>31</v>
       </c>
@@ -6488,8 +6698,14 @@
       <c r="CU20" t="s">
         <v>31</v>
       </c>
+      <c r="CV20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -6766,6 +6982,12 @@
       <c r="CO21" t="s">
         <v>31</v>
       </c>
+      <c r="CP21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>31</v>
+      </c>
       <c r="CR21" s="6" t="s">
         <v>33</v>
       </c>
@@ -6778,8 +7000,14 @@
       <c r="CU21" t="s">
         <v>33</v>
       </c>
+      <c r="CV21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7056,6 +7284,12 @@
       <c r="CO22" t="s">
         <v>31</v>
       </c>
+      <c r="CP22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ22" t="s">
+        <v>31</v>
+      </c>
       <c r="CR22" s="6" t="s">
         <v>33</v>
       </c>
@@ -7068,8 +7302,14 @@
       <c r="CU22" t="s">
         <v>31</v>
       </c>
+      <c r="CV22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7346,6 +7586,12 @@
       <c r="CO23" t="s">
         <v>31</v>
       </c>
+      <c r="CP23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ23" t="s">
+        <v>31</v>
+      </c>
       <c r="CR23" s="6" t="s">
         <v>31</v>
       </c>
@@ -7358,8 +7604,14 @@
       <c r="CU23" t="s">
         <v>31</v>
       </c>
+      <c r="CV23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7636,6 +7888,12 @@
       <c r="CO24" t="s">
         <v>31</v>
       </c>
+      <c r="CP24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ24" t="s">
+        <v>31</v>
+      </c>
       <c r="CR24" s="6" t="s">
         <v>31</v>
       </c>
@@ -7648,8 +7906,14 @@
       <c r="CU24" t="s">
         <v>33</v>
       </c>
+      <c r="CV24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7926,6 +8190,12 @@
       <c r="CO25" t="s">
         <v>31</v>
       </c>
+      <c r="CP25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ25" t="s">
+        <v>31</v>
+      </c>
       <c r="CR25" s="6" t="s">
         <v>31</v>
       </c>
@@ -7938,8 +8208,14 @@
       <c r="CU25" t="s">
         <v>31</v>
       </c>
+      <c r="CV25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -8216,6 +8492,12 @@
       <c r="CO26" t="s">
         <v>33</v>
       </c>
+      <c r="CP26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ26" t="s">
+        <v>31</v>
+      </c>
       <c r="CR26" s="6" t="s">
         <v>33</v>
       </c>
@@ -8228,8 +8510,14 @@
       <c r="CU26" t="s">
         <v>31</v>
       </c>
+      <c r="CV26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW26" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="27" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -8506,6 +8794,12 @@
       <c r="CO27" t="s">
         <v>31</v>
       </c>
+      <c r="CP27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ27" t="s">
+        <v>31</v>
+      </c>
       <c r="CR27" s="6" t="s">
         <v>31</v>
       </c>
@@ -8518,8 +8812,14 @@
       <c r="CU27" t="s">
         <v>31</v>
       </c>
+      <c r="CV27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -8796,6 +9096,12 @@
       <c r="CO28" t="s">
         <v>31</v>
       </c>
+      <c r="CP28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ28" t="s">
+        <v>31</v>
+      </c>
       <c r="CR28" s="6" t="s">
         <v>33</v>
       </c>
@@ -8806,6 +9112,12 @@
         <v>31</v>
       </c>
       <c r="CU28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF04AB3-0FEF-40BA-A647-998326E10754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0953DB-EDEA-45EB-937F-5272F78564DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="38">
   <si>
     <t>Alunos</t>
   </si>
@@ -554,7 +554,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CP28" sqref="CP28"/>
+      <selection pane="bottomRight" activeCell="CZ12" sqref="CZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,6 +1570,9 @@
       <c r="CW3" t="s">
         <v>31</v>
       </c>
+      <c r="CX3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1872,6 +1875,9 @@
       <c r="CW4" t="s">
         <v>33</v>
       </c>
+      <c r="CX4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2174,6 +2180,9 @@
       <c r="CW5" t="s">
         <v>31</v>
       </c>
+      <c r="CX5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2476,6 +2485,9 @@
       <c r="CW6" t="s">
         <v>31</v>
       </c>
+      <c r="CX6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2778,6 +2790,9 @@
       <c r="CW7" t="s">
         <v>31</v>
       </c>
+      <c r="CX7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3080,6 +3095,9 @@
       <c r="CW8" t="s">
         <v>31</v>
       </c>
+      <c r="CX8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3382,6 +3400,9 @@
       <c r="CW9" t="s">
         <v>31</v>
       </c>
+      <c r="CX9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3684,6 +3705,9 @@
       <c r="CW10" t="s">
         <v>31</v>
       </c>
+      <c r="CX10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3986,6 +4010,9 @@
       <c r="CW11" t="s">
         <v>31</v>
       </c>
+      <c r="CX11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4288,6 +4315,9 @@
       <c r="CW12" t="s">
         <v>31</v>
       </c>
+      <c r="CX12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4590,6 +4620,9 @@
       <c r="CW13" t="s">
         <v>33</v>
       </c>
+      <c r="CX13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4892,6 +4925,9 @@
       <c r="CW14" t="s">
         <v>31</v>
       </c>
+      <c r="CX14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5194,6 +5230,9 @@
       <c r="CW15" t="s">
         <v>31</v>
       </c>
+      <c r="CX15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5496,8 +5535,11 @@
       <c r="CW16" t="s">
         <v>31</v>
       </c>
+      <c r="CX16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5798,8 +5840,11 @@
       <c r="CW17" t="s">
         <v>31</v>
       </c>
+      <c r="CX17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -6100,8 +6145,11 @@
       <c r="CW18" t="s">
         <v>31</v>
       </c>
+      <c r="CX18" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6402,8 +6450,11 @@
       <c r="CW19" t="s">
         <v>31</v>
       </c>
+      <c r="CX19" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6704,8 +6755,11 @@
       <c r="CW20" t="s">
         <v>31</v>
       </c>
+      <c r="CX20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -7006,8 +7060,11 @@
       <c r="CW21" t="s">
         <v>31</v>
       </c>
+      <c r="CX21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7308,8 +7365,11 @@
       <c r="CW22" t="s">
         <v>31</v>
       </c>
+      <c r="CX22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7610,8 +7670,11 @@
       <c r="CW23" t="s">
         <v>31</v>
       </c>
+      <c r="CX23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7912,8 +7975,11 @@
       <c r="CW24" t="s">
         <v>31</v>
       </c>
+      <c r="CX24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8214,8 +8280,11 @@
       <c r="CW25" t="s">
         <v>31</v>
       </c>
+      <c r="CX25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -8516,8 +8585,11 @@
       <c r="CW26" t="s">
         <v>33</v>
       </c>
+      <c r="CX26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -8818,8 +8890,11 @@
       <c r="CW27" t="s">
         <v>31</v>
       </c>
+      <c r="CX27" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -9118,6 +9193,9 @@
         <v>31</v>
       </c>
       <c r="CW28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CX28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0953DB-EDEA-45EB-937F-5272F78564DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4438353C-FC5F-4C57-A20B-958C493FF9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="38">
   <si>
     <t>Alunos</t>
   </si>
@@ -551,10 +551,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BU6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CZ12" sqref="CZ12"/>
+      <selection pane="bottomRight" activeCell="BW3" sqref="BW3:BW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,6 +625,7 @@
     <col min="100" max="100" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="101" max="103" width="7" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:120" x14ac:dyDescent="0.25">
@@ -938,9 +939,15 @@
       <c r="CZ1" s="2">
         <v>45639</v>
       </c>
-      <c r="DA1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DC1" s="2"/>
+      <c r="DA1" s="2">
+        <v>45642</v>
+      </c>
+      <c r="DB1" s="2">
+        <v>45643</v>
+      </c>
+      <c r="DC1" s="2">
+        <v>45644</v>
+      </c>
       <c r="DD1" s="2"/>
       <c r="DE1" s="2"/>
       <c r="DF1" s="2"/>
@@ -1268,6 +1275,15 @@
       <c r="CZ2" t="s">
         <v>28</v>
       </c>
+      <c r="DA2" t="s">
+        <v>30</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1573,6 +1589,21 @@
       <c r="CX3" t="s">
         <v>33</v>
       </c>
+      <c r="CY3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1878,6 +1909,21 @@
       <c r="CX4" t="s">
         <v>33</v>
       </c>
+      <c r="CY4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>33</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2183,6 +2229,21 @@
       <c r="CX5" t="s">
         <v>31</v>
       </c>
+      <c r="CY5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2488,6 +2549,21 @@
       <c r="CX6" t="s">
         <v>33</v>
       </c>
+      <c r="CY6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2793,6 +2869,21 @@
       <c r="CX7" t="s">
         <v>31</v>
       </c>
+      <c r="CY7" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3098,6 +3189,21 @@
       <c r="CX8" t="s">
         <v>31</v>
       </c>
+      <c r="CY8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3403,6 +3509,21 @@
       <c r="CX9" t="s">
         <v>33</v>
       </c>
+      <c r="CY9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3708,6 +3829,21 @@
       <c r="CX10" t="s">
         <v>31</v>
       </c>
+      <c r="CY10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4013,6 +4149,21 @@
       <c r="CX11" t="s">
         <v>33</v>
       </c>
+      <c r="CY11" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4318,6 +4469,21 @@
       <c r="CX12" t="s">
         <v>33</v>
       </c>
+      <c r="CY12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4623,6 +4789,21 @@
       <c r="CX13" t="s">
         <v>31</v>
       </c>
+      <c r="CY13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>33</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4928,6 +5109,21 @@
       <c r="CX14" t="s">
         <v>31</v>
       </c>
+      <c r="CY14" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA14" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5233,6 +5429,21 @@
       <c r="CX15" t="s">
         <v>33</v>
       </c>
+      <c r="CY15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5538,8 +5749,23 @@
       <c r="CX16" t="s">
         <v>33</v>
       </c>
+      <c r="CY16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5843,8 +6069,23 @@
       <c r="CX17" t="s">
         <v>33</v>
       </c>
+      <c r="CY17" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -6148,8 +6389,23 @@
       <c r="CX18" t="s">
         <v>33</v>
       </c>
+      <c r="CY18" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ18" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC18" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6453,8 +6709,23 @@
       <c r="CX19" t="s">
         <v>33</v>
       </c>
+      <c r="CY19" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ19" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC19" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6758,8 +7029,23 @@
       <c r="CX20" t="s">
         <v>31</v>
       </c>
+      <c r="CY20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ20" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA20" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB20" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -7063,8 +7349,23 @@
       <c r="CX21" t="s">
         <v>33</v>
       </c>
+      <c r="CY21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ21" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA21" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB21" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7368,8 +7669,23 @@
       <c r="CX22" t="s">
         <v>31</v>
       </c>
+      <c r="CY22" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ22" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA22" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB22" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7673,8 +7989,23 @@
       <c r="CX23" t="s">
         <v>31</v>
       </c>
+      <c r="CY23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ23" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA23" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB23" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7978,8 +8309,23 @@
       <c r="CX24" t="s">
         <v>33</v>
       </c>
+      <c r="CY24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ24" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA24" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB24" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8283,8 +8629,23 @@
       <c r="CX25" t="s">
         <v>31</v>
       </c>
+      <c r="CY25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA25" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB25" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -8588,8 +8949,23 @@
       <c r="CX26" t="s">
         <v>31</v>
       </c>
+      <c r="CY26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ26" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA26" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB26" t="s">
+        <v>33</v>
+      </c>
+      <c r="DC26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -8893,8 +9269,23 @@
       <c r="CX27" t="s">
         <v>33</v>
       </c>
+      <c r="CY27" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ27" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA27" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB27" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC27" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -9196,6 +9587,21 @@
         <v>31</v>
       </c>
       <c r="CX28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CY28" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA28" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB28" t="s">
+        <v>31</v>
+      </c>
+      <c r="DC28" t="s">
         <v>31</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4438353C-FC5F-4C57-A20B-958C493FF9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48903ABC-33D7-4198-933F-B0E8E298AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -551,10 +551,10 @@
   <dimension ref="A1:DP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BU6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BW3" sqref="BW3:BW28"/>
+      <selection pane="bottomRight" activeCell="DC2" sqref="DC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1602,7 @@
         <v>31</v>
       </c>
       <c r="DC3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
         <v>33</v>
       </c>
       <c r="DC4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
@@ -2562,7 +2562,7 @@
         <v>31</v>
       </c>
       <c r="DC6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.25">
@@ -3522,7 +3522,7 @@
         <v>31</v>
       </c>
       <c r="DC9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.25">
@@ -4162,7 +4162,7 @@
         <v>31</v>
       </c>
       <c r="DC11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.25">
@@ -4482,7 +4482,7 @@
         <v>31</v>
       </c>
       <c r="DC12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.25">
@@ -5442,7 +5442,7 @@
         <v>31</v>
       </c>
       <c r="DC15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.25">
@@ -5762,7 +5762,7 @@
         <v>31</v>
       </c>
       <c r="DC16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:107" x14ac:dyDescent="0.25">
@@ -6402,7 +6402,7 @@
         <v>31</v>
       </c>
       <c r="DC18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:107" x14ac:dyDescent="0.25">
@@ -6695,10 +6695,10 @@
         <v>31</v>
       </c>
       <c r="CT19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CU19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CV19" t="s">
         <v>31</v>
@@ -6707,7 +6707,7 @@
         <v>31</v>
       </c>
       <c r="CX19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CY19" t="s">
         <v>31</v>
@@ -7362,7 +7362,7 @@
         <v>31</v>
       </c>
       <c r="DC21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:107" x14ac:dyDescent="0.25">
@@ -8322,7 +8322,7 @@
         <v>31</v>
       </c>
       <c r="DC24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:107" x14ac:dyDescent="0.25">
@@ -8944,7 +8944,7 @@
         <v>31</v>
       </c>
       <c r="CW26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CX26" t="s">
         <v>31</v>
@@ -9255,7 +9255,7 @@
         <v>31</v>
       </c>
       <c r="CT27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CU27" t="s">
         <v>31</v>
